--- a/5-transforming-columns-i/dvdrentals.xlsx
+++ b/5-transforming-columns-i/dvdrentals.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-intro-to-excel-power-query\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-intro-to-excel-power-query\5-transforming-columns-i\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8629C7C-0929-4ED9-B22C-6AFD3E486E96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112FE683-4A66-4722-A09F-A13DE96A3C9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="12" r:id="rId1"/>
@@ -64,9 +64,6 @@
     <t>BOSEMAN,CHADWICK</t>
   </si>
   <si>
-    <t>DDWDM      14767600</t>
-  </si>
-  <si>
     <t>Action/Adventure</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>RIDLEY,DAISY</t>
   </si>
   <si>
-    <t>DDWD       14899900</t>
-  </si>
-  <si>
     <t>Sci-Fi/Fantasy</t>
   </si>
   <si>
@@ -88,9 +82,6 @@
     <t>OLMOS,EDWARD JAMES</t>
   </si>
   <si>
-    <t>DDWD  1476710000000</t>
-  </si>
-  <si>
     <t>Comedy</t>
   </si>
   <si>
@@ -100,27 +91,18 @@
     <t>PRATT,CHRIS</t>
   </si>
   <si>
-    <t>DDWDM      14495800</t>
-  </si>
-  <si>
     <t>CARS 3</t>
   </si>
   <si>
     <t>WILSON,OWEN</t>
   </si>
   <si>
-    <t>DDWD       14629100</t>
-  </si>
-  <si>
     <t>DESPICABLE ME 3</t>
   </si>
   <si>
     <t>CARELL,STEVE</t>
   </si>
   <si>
-    <t>DDMC      61180665A</t>
-  </si>
-  <si>
     <t>Family</t>
   </si>
   <si>
@@ -130,27 +112,18 @@
     <t>GADOT,GAL</t>
   </si>
   <si>
-    <t>DDWA     1000618680</t>
-  </si>
-  <si>
     <t>BABY DRIVER</t>
   </si>
   <si>
     <t>ELGORT,ANSEL</t>
   </si>
   <si>
-    <t>DDCO          48828</t>
-  </si>
-  <si>
     <t>STEPHEN KING'S IT</t>
   </si>
   <si>
     <t>RITTER,JOHN</t>
   </si>
   <si>
-    <t>DDWA     1000000276</t>
-  </si>
-  <si>
     <t>Horror</t>
   </si>
   <si>
@@ -160,36 +133,24 @@
     <t>WITHERSPOON,REESE</t>
   </si>
   <si>
-    <t>DDWD       14768900</t>
-  </si>
-  <si>
     <t>SPIDERMAN:HOMECOMING</t>
   </si>
   <si>
     <t>HOLLAND,TOM</t>
   </si>
   <si>
-    <t>DDCO          48858</t>
-  </si>
-  <si>
     <t>DESCENDANTS 2</t>
   </si>
   <si>
     <t>CAMERON,DOVE</t>
   </si>
   <si>
-    <t>DDWD       14485400</t>
-  </si>
-  <si>
     <t>BLADE RUNNER:FINAL CUT</t>
   </si>
   <si>
     <t>FORD,HARRISON</t>
   </si>
   <si>
-    <t>DDWA     1000160243</t>
-  </si>
-  <si>
     <t>THOR:RAGNAROK</t>
   </si>
   <si>
@@ -205,60 +166,39 @@
     <t>ELBA,IDRIS</t>
   </si>
   <si>
-    <t>DDCO          48809</t>
-  </si>
-  <si>
     <t>PIRATES OF THE CARIBBEAN:DEAD MEN TEL</t>
   </si>
   <si>
     <t>DEPP,JOHNNY</t>
   </si>
   <si>
-    <t>DDWD       14502900</t>
-  </si>
-  <si>
     <t>EMOJI MOVIE</t>
   </si>
   <si>
     <t>MILLER,T.J.</t>
   </si>
   <si>
-    <t>DDCO          50110</t>
-  </si>
-  <si>
     <t>HOME ALONE</t>
   </si>
   <si>
     <t>CULKIN,MACAULAY</t>
   </si>
   <si>
-    <t>DDTW        2306834</t>
-  </si>
-  <si>
     <t>JUMANJI:WELCOME TO THE JUNGLE</t>
   </si>
   <si>
     <t>JOHNSON,DWAYNE</t>
   </si>
   <si>
-    <t>DDCO          48852</t>
-  </si>
-  <si>
     <t>DESCENDANTS</t>
   </si>
   <si>
-    <t>DDWD       12351500</t>
-  </si>
-  <si>
     <t>VICTORIA:SEASON 2 (UK EDITION)</t>
   </si>
   <si>
     <t>VICTORIA</t>
   </si>
   <si>
-    <t>DDPBSP    MS5170401</t>
-  </si>
-  <si>
     <t>Television: PBS</t>
   </si>
   <si>
@@ -268,9 +208,6 @@
     <t>GABLE,CLARK</t>
   </si>
   <si>
-    <t>DDWA     1000089173</t>
-  </si>
-  <si>
     <t>Drama</t>
   </si>
   <si>
@@ -280,27 +217,18 @@
     <t>BRODERICK,MATTHEW</t>
   </si>
   <si>
-    <t>DDWD       14482400</t>
-  </si>
-  <si>
     <t>GREATEST SHOWMAN</t>
   </si>
   <si>
     <t>JACKMAN,HUGH</t>
   </si>
   <si>
-    <t>DDTW        2332786</t>
-  </si>
-  <si>
     <t>BIG BANG THEORY:COMPLETE TENTH SEASON</t>
   </si>
   <si>
     <t>BIG BANG THEORY</t>
   </si>
   <si>
-    <t>DDWA     1000632277</t>
-  </si>
-  <si>
     <t>Television: Series</t>
   </si>
   <si>
@@ -310,210 +238,135 @@
     <t>WAHLBERG,MARK</t>
   </si>
   <si>
-    <t>DDPA    59190430000</t>
-  </si>
-  <si>
     <t>HIDDEN FIGURES</t>
   </si>
   <si>
     <t>HENSON,TARAJI P.</t>
   </si>
   <si>
-    <t>DDTW        2327532</t>
-  </si>
-  <si>
     <t>MOANA</t>
   </si>
   <si>
     <t>CRAVALHO,AULI'I</t>
   </si>
   <si>
-    <t>DDWD       14327700</t>
-  </si>
-  <si>
     <t>STAR WARS:FORCE AWAKENS</t>
   </si>
   <si>
-    <t>DDWD       13401300</t>
-  </si>
-  <si>
     <t>ENDEAVOUR:SEASON 4 (UK LENGTH ED)</t>
   </si>
   <si>
     <t>ENDEAVOUR</t>
   </si>
   <si>
-    <t>DDPBSP      MS61701</t>
-  </si>
-  <si>
     <t>WONDER</t>
   </si>
   <si>
     <t>ROBERTS,JULIA</t>
   </si>
   <si>
-    <t>DDLGHE        51520</t>
-  </si>
-  <si>
     <t>PRINCESS AND THE FROG</t>
   </si>
   <si>
     <t>ROSE,ANIKA NONI</t>
   </si>
   <si>
-    <t>DDWD       10260900</t>
-  </si>
-  <si>
     <t>BAYWATCH</t>
   </si>
   <si>
-    <t>DDPA    59189664000</t>
-  </si>
-  <si>
     <t>8 SECONDS</t>
   </si>
   <si>
     <t>PERRY,LUKE</t>
   </si>
   <si>
-    <t>DDTHE    1000032206</t>
-  </si>
-  <si>
     <t>DUNKIRK</t>
   </si>
   <si>
     <t>WHITEHEAD,FIONN</t>
   </si>
   <si>
-    <t>DDWA     1000634202</t>
-  </si>
-  <si>
     <t>SECONDHAND LIONS</t>
   </si>
   <si>
     <t>OSMENT,HALEY JOEL</t>
   </si>
   <si>
-    <t>DDTHE    1000032458</t>
-  </si>
-  <si>
     <t>MUMMY</t>
   </si>
   <si>
     <t>CRUISE,TOM</t>
   </si>
   <si>
-    <t>DDMC       61168755</t>
-  </si>
-  <si>
     <t>VIETNAM WAR</t>
   </si>
   <si>
     <t>BURNS,KEN</t>
   </si>
   <si>
-    <t>DDPBSP      VWAR600</t>
-  </si>
-  <si>
     <t>ROGUE ONE:STAR WARS STORY</t>
   </si>
   <si>
     <t>JONES,FELICITY</t>
   </si>
   <si>
-    <t>DDWD       14149600</t>
-  </si>
-  <si>
     <t>FATE OF THE FURIOUS</t>
   </si>
   <si>
-    <t>DDMC      61180964A</t>
-  </si>
-  <si>
     <t>DESPICABLE ME 2 MOVIE COLLECTION</t>
   </si>
   <si>
-    <t>DDMC       61178795</t>
-  </si>
-  <si>
     <t>SHAPE OF WATER</t>
   </si>
   <si>
     <t>HAWKINS,SALLY</t>
   </si>
   <si>
-    <t>DDTW        2354049</t>
-  </si>
-  <si>
     <t>MOTHER</t>
   </si>
   <si>
     <t>LAWRENCE,JENNIFER</t>
   </si>
   <si>
-    <t>DDPA    59193653000</t>
-  </si>
-  <si>
     <t>DADDY'S HOME 2</t>
   </si>
   <si>
-    <t>DDPA    59195055000</t>
-  </si>
-  <si>
     <t>SING</t>
   </si>
   <si>
     <t>MCCONAUGHEY,MATTHEW</t>
   </si>
   <si>
-    <t>DDMC       61180488</t>
-  </si>
-  <si>
     <t>KONG:SKULL ISLAND</t>
   </si>
   <si>
     <t>JACKSON,SAMUEL L.</t>
   </si>
   <si>
-    <t>DDWA     1000633531</t>
-  </si>
-  <si>
     <t>POLDARK:SEASON 2 (UK EDITION)</t>
   </si>
   <si>
     <t>POLDARK</t>
   </si>
   <si>
-    <t>DDPBSP     POLD6200</t>
-  </si>
-  <si>
     <t>IT</t>
   </si>
   <si>
     <t>SKARSGARD,BILL</t>
   </si>
   <si>
-    <t>DDWA     1000634326</t>
-  </si>
-  <si>
     <t>PETER RABBIT</t>
   </si>
   <si>
     <t>ROBBIE,MARGOT</t>
   </si>
   <si>
-    <t>DDCO          51321</t>
-  </si>
-  <si>
     <t>URBAN COWBOY</t>
   </si>
   <si>
     <t>TRAVOLTA,JOHN</t>
   </si>
   <si>
-    <t>DDPA    59160095000</t>
-  </si>
-  <si>
     <t>Westerns</t>
   </si>
   <si>
@@ -523,129 +376,84 @@
     <t>HALL,REGINA</t>
   </si>
   <si>
-    <t>DDMC       61182951</t>
-  </si>
-  <si>
     <t>GRANTCHESTER:SEASON 3</t>
   </si>
   <si>
     <t>GRANTCHESTER</t>
   </si>
   <si>
-    <t>DDPBSP     MST64630</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
     <t>HANKS,TOM</t>
   </si>
   <si>
-    <t>DDTW        2347037</t>
-  </si>
-  <si>
     <t>IT'S A WONDERFUL LIFE</t>
   </si>
   <si>
     <t>STEWART,JAMES</t>
   </si>
   <si>
-    <t>DDPA    59180922000</t>
-  </si>
-  <si>
     <t>GHOST IN THE SHELL</t>
   </si>
   <si>
     <t>JOHANSSON,SCARLETT</t>
   </si>
   <si>
-    <t>DDPA    59187971000</t>
-  </si>
-  <si>
     <t>WAR FOR THE PLANET OF THE APES</t>
   </si>
   <si>
     <t>KEBBELL,TOBY</t>
   </si>
   <si>
-    <t>DDTW        2332271</t>
-  </si>
-  <si>
     <t>LADY BIRD</t>
   </si>
   <si>
     <t>RONAN,SAOIRSE</t>
   </si>
   <si>
-    <t>DDLGHE        53749</t>
-  </si>
-  <si>
     <t>KINGSMAN:GOLDEN CIRCLE</t>
   </si>
   <si>
     <t>EGERTON,TARON</t>
   </si>
   <si>
-    <t>DDTW        2332873</t>
-  </si>
-  <si>
     <t>SAME KIND OF DIFFERENT AS ME</t>
   </si>
   <si>
     <t>ZELLWEGER,RENEE</t>
   </si>
   <si>
-    <t>DDPA    59194412000</t>
-  </si>
-  <si>
     <t>FERDINAND</t>
   </si>
   <si>
     <t>MCKINNON,KATE</t>
   </si>
   <si>
-    <t>DDTW        2327727</t>
-  </si>
-  <si>
     <t>POLDARK:SEASON 3 (UK EDITION)</t>
   </si>
   <si>
-    <t>DDPBSP     POLD6300</t>
-  </si>
-  <si>
     <t>MURDER ON THE ORIENT EXPRESS</t>
   </si>
   <si>
-    <t>DDTW        2339392</t>
-  </si>
-  <si>
     <t>BEAUTY AND THE BEAST</t>
   </si>
   <si>
     <t>WATSON,EMMA</t>
   </si>
   <si>
-    <t>DDWD       14479200</t>
-  </si>
-  <si>
     <t>GOOFY MOVIE</t>
   </si>
   <si>
     <t>GOOFY</t>
   </si>
   <si>
-    <t>DDWD       01957800</t>
-  </si>
-  <si>
     <t>GAME OF THRONES:COMPLETE SEVENTH SEAS</t>
   </si>
   <si>
     <t>GAME OF THRONES</t>
   </si>
   <si>
-    <t>DDHBO    1000649608</t>
-  </si>
-  <si>
     <t>Television: HBO</t>
   </si>
   <si>
@@ -655,51 +463,33 @@
     <t>MCDORMAND,FRANCES</t>
   </si>
   <si>
-    <t>DDTW        2341626</t>
-  </si>
-  <si>
     <t>LEGO NINJAGO MOVIE</t>
   </si>
   <si>
     <t>CHAN,JACKIE</t>
   </si>
   <si>
-    <t>DDWA     1000634439</t>
-  </si>
-  <si>
     <t>POLDARK:SEASON 1</t>
   </si>
   <si>
-    <t>DDPBSP      POLD600</t>
-  </si>
-  <si>
     <t>DOWNTON ABBEY:COMPLETE COLLECTION</t>
   </si>
   <si>
     <t>DOWNTON ABBEY</t>
   </si>
   <si>
-    <t>DDPBSP      DAST650</t>
-  </si>
-  <si>
     <t>MARY POPPINS (50TH ANNIVERSARY EDITIO</t>
   </si>
   <si>
     <t>ANDREWS,JULIE</t>
   </si>
   <si>
-    <t>DDWD       11179000</t>
-  </si>
-  <si>
     <t>MY FAIR LADY</t>
   </si>
   <si>
     <t>HEPBURN,AUDREY</t>
   </si>
   <si>
-    <t>DDPA         871964</t>
-  </si>
-  <si>
     <t>Feature Film-Romance</t>
   </si>
   <si>
@@ -709,141 +499,93 @@
     <t>RUSSELL,KURT</t>
   </si>
   <si>
-    <t>DDWD       01307800</t>
-  </si>
-  <si>
     <t>DARKEST HOUR</t>
   </si>
   <si>
     <t>OLDMAN,GARY</t>
   </si>
   <si>
-    <t>DDMC       62184511</t>
-  </si>
-  <si>
     <t>SNATCHED</t>
   </si>
   <si>
     <t>SCHUMER,AMY</t>
   </si>
   <si>
-    <t>DDTW        2331401</t>
-  </si>
-  <si>
     <t>OUTSIDERS</t>
   </si>
   <si>
     <t>SWAYZE,PATRICK</t>
   </si>
   <si>
-    <t>DDWA     1000042281</t>
-  </si>
-  <si>
     <t>ATOMIC BLONDE</t>
   </si>
   <si>
     <t>THERON,CHARLIZE</t>
   </si>
   <si>
-    <t>DDMC       62184532</t>
-  </si>
-  <si>
     <t>FIFTY SHADES FREED</t>
   </si>
   <si>
     <t>JOHNSON,DAKOTA</t>
   </si>
   <si>
-    <t>DDMC       61180981</t>
-  </si>
-  <si>
     <t>LEAP</t>
   </si>
   <si>
     <t>FANNING,ELLE</t>
   </si>
   <si>
-    <t>DDLGHE        52132</t>
-  </si>
-  <si>
     <t>EVERYTHING EVERYTHING</t>
   </si>
   <si>
     <t>STENBERG,AMANDLA</t>
   </si>
   <si>
-    <t>DDWA     1000643784</t>
-  </si>
-  <si>
     <t>PITCH PERFECT 3</t>
   </si>
   <si>
     <t>KENDRICK,ANNA</t>
   </si>
   <si>
-    <t>DDMC       61181260</t>
-  </si>
-  <si>
     <t>DIARY OF A WIMPY KID:LONG HAUL</t>
   </si>
   <si>
     <t>SILVERSTONE,ALICIA</t>
   </si>
   <si>
-    <t>DDTW       2334005A</t>
-  </si>
-  <si>
     <t>ALIEN:COVENANT</t>
   </si>
   <si>
     <t>FASSBENDER,MICHAEL</t>
   </si>
   <si>
-    <t>DDTW        2339193</t>
-  </si>
-  <si>
     <t>GUARDIANS OF THE GALAXY</t>
   </si>
   <si>
-    <t>DDWDM      12334400</t>
-  </si>
-  <si>
     <t>HITMAN'S BODYGUARD</t>
   </si>
   <si>
     <t>YUNG,ELODIE</t>
   </si>
   <si>
-    <t>DDLGHE        53097</t>
-  </si>
-  <si>
     <t>SUBURBICON</t>
   </si>
   <si>
     <t>DAMON,MATT</t>
   </si>
   <si>
-    <t>DDPA    59194279000</t>
-  </si>
-  <si>
     <t>BEETLEJUICE DELUXE EDITION</t>
   </si>
   <si>
     <t>KEATON,MICHAEL</t>
   </si>
   <si>
-    <t>DDWA     1000035882</t>
-  </si>
-  <si>
     <t>PHANTOM OF THE OPERA</t>
   </si>
   <si>
     <t>BUTLER,GERARD</t>
   </si>
   <si>
-    <t>DDWA     1000001540</t>
-  </si>
-  <si>
     <t>Musicals</t>
   </si>
   <si>
@@ -853,309 +595,201 @@
     <t>MILLS,JOHN</t>
   </si>
   <si>
-    <t>DDWD       02155300</t>
-  </si>
-  <si>
     <t>ALL THE MONEY IN THE WORLD</t>
   </si>
   <si>
     <t>WILLIAMS,MICHELLE</t>
   </si>
   <si>
-    <t>DDCO          52782</t>
-  </si>
-  <si>
     <t>I CAN ONLY IMAGINE</t>
   </si>
   <si>
     <t>FINLEY,J. MICHAEL</t>
   </si>
   <si>
-    <t>DDLGHE        54244</t>
-  </si>
-  <si>
     <t>AMERICAN MADE</t>
   </si>
   <si>
-    <t>DDMC       61172623</t>
-  </si>
-  <si>
     <t>MOUNTAIN BETWEEN US</t>
   </si>
   <si>
     <t>WINSLET,KATE</t>
   </si>
   <si>
-    <t>DDTW        2341701</t>
-  </si>
-  <si>
     <t>GOONIES</t>
   </si>
   <si>
     <t>FELDMAN,CORY</t>
   </si>
   <si>
-    <t>DDWA     1000025419</t>
-  </si>
-  <si>
     <t>MAZE RUNNER:DEATH CURE</t>
   </si>
   <si>
     <t>SALAZAR,ROSA</t>
   </si>
   <si>
-    <t>DDTW        2331391</t>
-  </si>
-  <si>
     <t>FIREPROOF</t>
   </si>
   <si>
     <t>CAMERON,KIRK</t>
   </si>
   <si>
-    <t>DDCO          27498</t>
-  </si>
-  <si>
     <t>TUNNEL:SABOTAGE SEASON 2</t>
   </si>
   <si>
     <t>THE TUNNEL</t>
   </si>
   <si>
-    <t>DDPBSP      TUNL620</t>
-  </si>
-  <si>
     <t>GODFATHER 3 MOVIE COLLECTION</t>
   </si>
   <si>
     <t>BRANDO,MARLON</t>
   </si>
   <si>
-    <t>DDPA    59173264000</t>
-  </si>
-  <si>
     <t>TWIN PEAKS:LIMITED SERIES EVENT</t>
   </si>
   <si>
     <t>TWIN PEAKS</t>
   </si>
   <si>
-    <t>DDPA    59194132000</t>
-  </si>
-  <si>
     <t>CASABLANCA:70TH ANNIVERSARY</t>
   </si>
   <si>
     <t>BOGART,HUMPHREY</t>
   </si>
   <si>
-    <t>DDWA     1000287473</t>
-  </si>
-  <si>
     <t>COLOR PURPLE</t>
   </si>
   <si>
     <t>GOLDBERG,WHOOPI</t>
   </si>
   <si>
-    <t>DDWA     1000025415</t>
-  </si>
-  <si>
     <t>BIG LITTLE LIES:SEASON 1</t>
   </si>
   <si>
-    <t>DDHBO    1000648142</t>
-  </si>
-  <si>
     <t>DOWNSIZING</t>
   </si>
   <si>
-    <t>DDPA    59195579000</t>
-  </si>
-  <si>
     <t>INSIDIOUS:LAST KEY</t>
   </si>
   <si>
     <t>SHAYE,LIN</t>
   </si>
   <si>
-    <t>DDCO          51885</t>
-  </si>
-  <si>
     <t>ANNIHILATION</t>
   </si>
   <si>
     <t>PORTMAN,NATALIE</t>
   </si>
   <si>
-    <t>DDPA    59196307000</t>
-  </si>
-  <si>
     <t>NCIS:FOURTEENTH SEASON</t>
   </si>
   <si>
     <t>NCIS</t>
   </si>
   <si>
-    <t>DDPA    59189807000</t>
-  </si>
-  <si>
     <t>BRAVE LITTLE TOASTER</t>
   </si>
   <si>
-    <t>DDWD       03042200</t>
-  </si>
-  <si>
     <t>GOING IN STYLE</t>
   </si>
   <si>
     <t>FREEMAN,MORGAN</t>
   </si>
   <si>
-    <t>DDWA     1000597183</t>
-  </si>
-  <si>
     <t>SMURFS:LOST VILLAGE</t>
   </si>
   <si>
     <t>WINTER,ARIEL</t>
   </si>
   <si>
-    <t>DDCO          48843</t>
-  </si>
-  <si>
     <t>GLASS CASTLE</t>
   </si>
   <si>
     <t>LARSON,BRIE</t>
   </si>
   <si>
-    <t>DDLGHE        52932</t>
-  </si>
-  <si>
     <t>RED SPARROW</t>
   </si>
   <si>
-    <t>DDTW        2341780</t>
-  </si>
-  <si>
     <t>Suspense</t>
   </si>
   <si>
     <t>I TONYA</t>
   </si>
   <si>
-    <t>DDMC       36194505</t>
-  </si>
-  <si>
     <t>MULAN/MULAN II</t>
   </si>
   <si>
     <t>FERRER,MIGUEL</t>
   </si>
   <si>
-    <t>DDWD       10939600</t>
-  </si>
-  <si>
     <t>PHANTOM THREAD</t>
   </si>
   <si>
     <t>LEWIS,DANIEL DAY</t>
   </si>
   <si>
-    <t>DDMC       62195000</t>
-  </si>
-  <si>
     <t>SINGIN IN THE RAIN:60TH ANN/SPECIAL E</t>
   </si>
   <si>
     <t>KELLY,GENE</t>
   </si>
   <si>
-    <t>DDWA     1000334194</t>
-  </si>
-  <si>
     <t>PRETTY WOMAN:15TH ANNIVERSARY SPECIAL</t>
   </si>
   <si>
     <t>GERE,RICHARD</t>
   </si>
   <si>
-    <t>DDWD       03997200</t>
-  </si>
-  <si>
     <t>VICTORIA &amp; ABDUL</t>
   </si>
   <si>
     <t>DENCH,JUDI</t>
   </si>
   <si>
-    <t>DDMC       62184536</t>
-  </si>
-  <si>
     <t>INDIAN IN THE CUPBOARD</t>
   </si>
   <si>
     <t>SCARDINO,HAL</t>
   </si>
   <si>
-    <t>DDCO          11642</t>
-  </si>
-  <si>
     <t>WIND RIVER</t>
   </si>
   <si>
     <t>RENNER,JEREMY</t>
   </si>
   <si>
-    <t>DDLGHE        53399</t>
-  </si>
-  <si>
     <t>FOX AND THE HOUND (30TH ANNIVERSARY E</t>
   </si>
   <si>
     <t>ROONEY,MICKEY</t>
   </si>
   <si>
-    <t>DDWD       10779900</t>
-  </si>
-  <si>
     <t>MOLLY'S GAME</t>
   </si>
   <si>
     <t>CHASTAIN,JESSICA</t>
   </si>
   <si>
-    <t>DDMC       64186843</t>
-  </si>
-  <si>
     <t>FENCES</t>
   </si>
   <si>
     <t>WASHINGTON,DENZEL</t>
   </si>
   <si>
-    <t>DDPA    59183768000</t>
-  </si>
-  <si>
     <t>IMMORTAL LIFE OF HENRIETTA LACKS</t>
   </si>
   <si>
     <t>WINFREY,OPRAH</t>
   </si>
   <si>
-    <t>DDHBO    1000650980</t>
-  </si>
-  <si>
     <t>PAW PATROL:GREAT PIRATE RESCUE</t>
   </si>
   <si>
     <t>PAW PATROL</t>
   </si>
   <si>
-    <t>DDNICO  59189962000</t>
-  </si>
-  <si>
     <t>Television: Nickelodeon</t>
   </si>
   <si>
@@ -1165,99 +799,60 @@
     <t>BRANDY</t>
   </si>
   <si>
-    <t>DDWD       02151600</t>
-  </si>
-  <si>
-    <t>DDPBSP     MAS64701</t>
-  </si>
-  <si>
-    <t>DDPBSP      MS61704</t>
-  </si>
-  <si>
     <t>CALL ME BY YOUR NAME</t>
   </si>
   <si>
     <t>HAMMER,ARMIE</t>
   </si>
   <si>
-    <t>DDCO          52382</t>
-  </si>
-  <si>
     <t>TITANIC</t>
   </si>
   <si>
     <t>DICAPRIO,LEONARDO</t>
   </si>
   <si>
-    <t>DDPA         146814</t>
-  </si>
-  <si>
     <t>GIFTED</t>
   </si>
   <si>
     <t>EVANS,CHRIS</t>
   </si>
   <si>
-    <t>DDTW        2322685</t>
-  </si>
-  <si>
     <t>BLADE RUNNER 2049</t>
   </si>
   <si>
-    <t>DDWA     1000634410</t>
-  </si>
-  <si>
     <t>ARISTOCATS (SPECIAL EDITION)</t>
   </si>
   <si>
     <t>HARRIS,PHIL</t>
   </si>
   <si>
-    <t>DDWD       10878300</t>
-  </si>
-  <si>
     <t>I LOVE LUCY:COMPLETE SERIES</t>
   </si>
   <si>
     <t>I LOVE LUCY</t>
   </si>
   <si>
-    <t>DDPA    59173490000</t>
-  </si>
-  <si>
     <t>PACIFIC RIM UPRISING</t>
   </si>
   <si>
     <t>EASTWOOD,SCOTT</t>
   </si>
   <si>
-    <t>DDMC       61190452</t>
-  </si>
-  <si>
     <t>VALERIAN AND THE CITY OF A THOUSAND P</t>
   </si>
   <si>
     <t>DEHAAN,DANE</t>
   </si>
   <si>
-    <t>DDLGHE        53133</t>
-  </si>
-  <si>
     <t>AUDREY HEPBURN 5 FILM COLLECTION</t>
   </si>
   <si>
-    <t>DDPA    59183293000</t>
-  </si>
-  <si>
     <t>WIZARD OF LIES</t>
   </si>
   <si>
     <t>DE NIRO,ROBERT</t>
   </si>
   <si>
-    <t>DDHBO    1000652748</t>
-  </si>
-  <si>
     <t>BIOGRAPHY</t>
   </si>
   <si>
@@ -1267,306 +862,198 @@
     <t>MARTINI,STEFANIE</t>
   </si>
   <si>
-    <t>DDPBSP      MSTN600</t>
-  </si>
-  <si>
     <t>COMMUTER</t>
   </si>
   <si>
     <t>NEESON,LIAM</t>
   </si>
   <si>
-    <t>DDLGHE        54152</t>
-  </si>
-  <si>
     <t>MAUDIE</t>
   </si>
   <si>
-    <t>DDCO          51036</t>
-  </si>
-  <si>
     <t>ONLY THE BRAVE</t>
   </si>
   <si>
     <t>BROLIN,JOSH</t>
   </si>
   <si>
-    <t>DDCO          51471</t>
-  </si>
-  <si>
     <t>AVATAR:LAST AIRBENDER COMPLETE SERIES</t>
   </si>
   <si>
     <t>AVATAR: THE LAST AIR</t>
   </si>
   <si>
-    <t>DDPA    59172274000</t>
-  </si>
-  <si>
     <t>BLUE BLOODS:SEVENTH SEASON</t>
   </si>
   <si>
     <t>BLUE BLOODS</t>
   </si>
   <si>
-    <t>DDPA    59189902000</t>
-  </si>
-  <si>
     <t>LOST CITY OF Z</t>
   </si>
   <si>
     <t>HUNNAM,CHARLIE</t>
   </si>
   <si>
-    <t>DDBRGP  94189303000</t>
-  </si>
-  <si>
     <t>KING ARTHUR:LEGEND OF THE SWORD</t>
   </si>
   <si>
-    <t>DDWA     1000575489</t>
-  </si>
-  <si>
     <t>BATTLE OF THE SEXES</t>
   </si>
   <si>
     <t>STONE,EMMA</t>
   </si>
   <si>
-    <t>DDTW        2333032</t>
-  </si>
-  <si>
     <t>LOGAN LUCKY</t>
   </si>
   <si>
     <t>CRAIG,DANIEL</t>
   </si>
   <si>
-    <t>DDMC       57189553</t>
-  </si>
-  <si>
     <t>AMERICAN ASSASSIN</t>
   </si>
   <si>
     <t>O'BRIEN,DYLAN</t>
   </si>
   <si>
-    <t>DDLGHE        53412</t>
-  </si>
-  <si>
     <t>DURRELLS IN CORFU:SEASON 2 (UK ED)</t>
   </si>
   <si>
     <t>DURRELLS IN CORFU</t>
   </si>
   <si>
-    <t>DDPBSP      MS61702</t>
-  </si>
-  <si>
     <t>CIRCLE</t>
   </si>
   <si>
-    <t>DDLGHE        52286</t>
-  </si>
-  <si>
     <t>DOWNTON ABBEY:SEASON 6 (UK EDITION)</t>
   </si>
   <si>
-    <t>DDPBSP     MST64600</t>
-  </si>
-  <si>
     <t>JUSTICE LEAGUE</t>
   </si>
   <si>
     <t>AFFLECK,BEN</t>
   </si>
   <si>
-    <t>DDWA     1000634434</t>
-  </si>
-  <si>
     <t>BIG SICK</t>
   </si>
   <si>
     <t>NANJIANI,KUMAIL</t>
   </si>
   <si>
-    <t>DDLGHE        52729</t>
-  </si>
-  <si>
     <t>MY LITTLE PONY:MOVIE</t>
   </si>
   <si>
     <t>BLUNT,EMILY</t>
   </si>
   <si>
-    <t>DDLGHE        53646</t>
-  </si>
-  <si>
     <t>CLUE</t>
   </si>
   <si>
     <t>BRENNAN,EILEEN</t>
   </si>
   <si>
-    <t>DDPA    59159904000</t>
-  </si>
-  <si>
     <t>FROZEN</t>
   </si>
   <si>
     <t>BELL,KRISTEN</t>
   </si>
   <si>
-    <t>DDWD       11941900</t>
-  </si>
-  <si>
     <t>LOVE SIMON</t>
   </si>
   <si>
     <t>ROBINSON,NICK</t>
   </si>
   <si>
-    <t>DDTW        2347109</t>
-  </si>
-  <si>
     <t>DUMBO (70TH ANNIVERSARY EDITION)</t>
   </si>
   <si>
     <t>BING,HERMAN</t>
   </si>
   <si>
-    <t>DDWD       10226200</t>
-  </si>
-  <si>
     <t>AIRPLANE</t>
   </si>
   <si>
     <t>HAYS,ROBERT</t>
   </si>
   <si>
-    <t>DDPA    59159878000</t>
-  </si>
-  <si>
     <t>HOME AGAIN</t>
   </si>
   <si>
-    <t>DDMC       55192090</t>
-  </si>
-  <si>
     <t>TOY STORY (SPECIAL EDITION)</t>
   </si>
   <si>
-    <t>DDWD       10323300</t>
-  </si>
-  <si>
     <t>ANGELS IN THE OUTFIELD</t>
   </si>
   <si>
     <t>GLOVER,DANNY</t>
   </si>
   <si>
-    <t>DDWD       02471900</t>
-  </si>
-  <si>
     <t>PARENT TRAP (1998) (SPECIAL EDITION)</t>
   </si>
   <si>
     <t>LOHAN,LINDSAY</t>
   </si>
   <si>
-    <t>DDWD       04000400</t>
-  </si>
-  <si>
     <t>NUT JOB 2:NUTTY BY NATURE</t>
   </si>
   <si>
     <t>ARNETT,WILL</t>
   </si>
   <si>
-    <t>DDMC       55186698</t>
-  </si>
-  <si>
     <t>FLORIDA PROJECT</t>
   </si>
   <si>
     <t>DAFOE,WILLEM</t>
   </si>
   <si>
-    <t>DDLGHE        53583</t>
-  </si>
-  <si>
     <t>MEGAN LEAVEY</t>
   </si>
   <si>
     <t>MARA,KATE</t>
   </si>
   <si>
-    <t>DDMC       57187470</t>
-  </si>
-  <si>
     <t>SUPERNATURAL:COMPLETE TWELFTH SEASON</t>
   </si>
   <si>
     <t>SUPERNATURAL</t>
   </si>
   <si>
-    <t>DDWA     1000632310</t>
-  </si>
-  <si>
     <t>ALICE IN WONDERLAND:UN ANNIVERSARY SE</t>
   </si>
   <si>
     <t>ANGEL,HEATHER</t>
   </si>
   <si>
-    <t>DDWD       10440400</t>
-  </si>
-  <si>
     <t>POCAHONTAS &amp; POCAHONTAS II:JOURNEY SE</t>
   </si>
   <si>
     <t>BEDARD,IRENE</t>
   </si>
   <si>
-    <t>DDWD       10879100</t>
-  </si>
-  <si>
     <t>ONCE UPON A TIME:COMPLETE SIXTH SEASO</t>
   </si>
   <si>
     <t>ONCE UPON A TIME</t>
   </si>
   <si>
-    <t>DDABCD     14414300</t>
-  </si>
-  <si>
     <t>HOSTILES</t>
   </si>
   <si>
     <t>BALE,CHRISTIAN</t>
   </si>
   <si>
-    <t>DDLGHE        53933</t>
-  </si>
-  <si>
     <t>HAPPY FEET/HAPPY FEET TWO</t>
   </si>
   <si>
     <t>WOOD,ELIJAH</t>
   </si>
   <si>
-    <t>DDWA     1000413966</t>
-  </si>
-  <si>
     <t>DUCKTALES VOL 1</t>
   </si>
   <si>
     <t>DUCKTALES</t>
   </si>
   <si>
-    <t>DDWD       11965000</t>
-  </si>
-  <si>
     <t>Children's Video</t>
   </si>
   <si>
@@ -1576,48 +1063,27 @@
     <t>LOPEZ,JENNIFER</t>
   </si>
   <si>
-    <t>DDWA     1000025431</t>
-  </si>
-  <si>
     <t>DUCKTALES VOL 2</t>
   </si>
   <si>
-    <t>DDWD       11965100</t>
-  </si>
-  <si>
     <t>FOREIGNER</t>
   </si>
   <si>
-    <t>DDMC       64181406</t>
-  </si>
-  <si>
     <t>INCREDIBLES</t>
   </si>
   <si>
     <t>NELSON,CRAIG</t>
   </si>
   <si>
-    <t>DDWD       03638700</t>
-  </si>
-  <si>
     <t>DEN OF THIEVES</t>
   </si>
   <si>
-    <t>DDMC       64188806</t>
-  </si>
-  <si>
     <t>SHERLOCK GNOMES</t>
   </si>
   <si>
-    <t>DDPA    59197344000</t>
-  </si>
-  <si>
     <t>CUMBERBATCH,BENEDIC</t>
   </si>
   <si>
-    <t>DDBBCV   1000645240</t>
-  </si>
-  <si>
     <t>Television: BBC</t>
   </si>
   <si>
@@ -1627,114 +1093,72 @@
     <t>WILDER,GENE</t>
   </si>
   <si>
-    <t>DDWA     1000183517</t>
-  </si>
-  <si>
     <t>MUPPET CHRISTMAS CAROL</t>
   </si>
   <si>
     <t>CAINE,MICHAEL</t>
   </si>
   <si>
-    <t>DDWD       04047400</t>
-  </si>
-  <si>
     <t>SECRET LIFE OF PETS</t>
   </si>
   <si>
     <t>SLATE,JENNY</t>
   </si>
   <si>
-    <t>DDMC       61172747</t>
-  </si>
-  <si>
     <t>TWISTER</t>
   </si>
   <si>
     <t>PAXTON,BILL</t>
   </si>
   <si>
-    <t>DDWA     1000118238</t>
-  </si>
-  <si>
     <t>ROUGH NIGHT</t>
   </si>
   <si>
-    <t>DDCO          49577</t>
-  </si>
-  <si>
     <t>FORREST GUMP</t>
   </si>
   <si>
-    <t>DDPA    59159937000</t>
-  </si>
-  <si>
     <t>BRAD'S STATUS</t>
   </si>
   <si>
     <t>STILLER,BEN</t>
   </si>
   <si>
-    <t>DDMC       25193712</t>
-  </si>
-  <si>
     <t>BLUE BLOODS:SIXTH SEASON</t>
   </si>
   <si>
-    <t>DDPA    59180586000</t>
-  </si>
-  <si>
     <t>GOODBYE CHRISTOPHER ROBIN</t>
   </si>
   <si>
     <t>GLEESON,DOMHNALL</t>
   </si>
   <si>
-    <t>DDTW        2343557</t>
-  </si>
-  <si>
     <t>47 METERS DOWN</t>
   </si>
   <si>
     <t>MOORE,MANDY</t>
   </si>
   <si>
-    <t>DDLGHE        52678</t>
-  </si>
-  <si>
     <t>DEATH WISH</t>
   </si>
   <si>
     <t>WILLIS,BRUCE</t>
   </si>
   <si>
-    <t>DDMGM       M136111</t>
-  </si>
-  <si>
     <t>INDIANA JONES:COMPLETE ADVENTURE COLL</t>
   </si>
   <si>
-    <t>DDPA         139664</t>
-  </si>
-  <si>
     <t>STAR</t>
   </si>
   <si>
     <t>YEUN,STEVEN</t>
   </si>
   <si>
-    <t>DDCO          50103</t>
-  </si>
-  <si>
     <t>LOVING VINCENT</t>
   </si>
   <si>
     <t>BOOTH,DOUGLAS</t>
   </si>
   <si>
-    <t>DDUVID       DE5651</t>
-  </si>
-  <si>
     <t>Crime &amp; Law</t>
   </si>
   <si>
@@ -1744,111 +1168,69 @@
     <t>ROE,ALEX</t>
   </si>
   <si>
-    <t>DDLGHE        54111</t>
-  </si>
-  <si>
     <t>STRONGER</t>
   </si>
   <si>
     <t>GYLLENHAAL,JAKE</t>
   </si>
   <si>
-    <t>DDLGHE        53457</t>
-  </si>
-  <si>
     <t>TO WALK INVISIBLE:BRONTE SISTERS</t>
   </si>
   <si>
     <t>ATKINS,FINN</t>
   </si>
   <si>
-    <t>DDPBSP     MAS64711</t>
-  </si>
-  <si>
     <t>CASE FOR CHRIST</t>
   </si>
   <si>
     <t>VOGEL,MIKE</t>
   </si>
   <si>
-    <t>DDMC      24186687A</t>
-  </si>
-  <si>
     <t>EASY YOGA:SECRET TO STRENGTH AND BALA</t>
   </si>
   <si>
     <t>CAPPY,PEGGY</t>
   </si>
   <si>
-    <t>DDPBSP      PEGC601</t>
-  </si>
-  <si>
     <t>FINNEY,ALBERT</t>
   </si>
   <si>
-    <t>DDPA    59195752000</t>
-  </si>
-  <si>
     <t>HOME ALONE 2 MOVIE COLLECTION</t>
   </si>
   <si>
-    <t>DDTW        2343711</t>
-  </si>
-  <si>
     <t>CROWN:SEASON ONE</t>
   </si>
   <si>
     <t>THE CROWN</t>
   </si>
   <si>
-    <t>DDCO          50710</t>
-  </si>
-  <si>
     <t>LEGO BATMAN MOVIE</t>
   </si>
   <si>
-    <t>DDWA     1000619743</t>
-  </si>
-  <si>
     <t>PAW PATROL:GREAT SNOW RESCUE</t>
   </si>
   <si>
-    <t>DDNICO  59191020000</t>
-  </si>
-  <si>
     <t>BEGUILED</t>
   </si>
   <si>
     <t>KIDMAN,NICOLE</t>
   </si>
   <si>
-    <t>DDMC       62184519</t>
-  </si>
-  <si>
     <t>SWEET HOME ALABAMA</t>
   </si>
   <si>
-    <t>DDWD       02912600</t>
-  </si>
-  <si>
     <t>SECRET OF MY SUCCESS</t>
   </si>
   <si>
     <t>FOX,MICHAEL J.</t>
   </si>
   <si>
-    <t>DDMC       61020412</t>
-  </si>
-  <si>
     <t>PINK FLOYD:PULSE</t>
   </si>
   <si>
     <t>PINK FLOYD</t>
   </si>
   <si>
-    <t>DDSYMV        54171</t>
-  </si>
-  <si>
     <t>Music Video: Concerts</t>
   </si>
   <si>
@@ -1858,114 +1240,72 @@
     <t>REYNOLDS,RYAN</t>
   </si>
   <si>
-    <t>DDTW        2310418</t>
-  </si>
-  <si>
     <t>ANNIE - SPECIAL ANNIVERSARY EDITION</t>
   </si>
   <si>
-    <t>DDCO          09532</t>
-  </si>
-  <si>
     <t>PEANUTS MOVIE</t>
   </si>
   <si>
     <t>SCHNAPP,NOAH</t>
   </si>
   <si>
-    <t>DDTW        2299264</t>
-  </si>
-  <si>
     <t>HARRY POTTER:COMP COLL YEARS 1-7</t>
   </si>
   <si>
     <t>HARRY POTTER</t>
   </si>
   <si>
-    <t>DDWA     1000189966</t>
-  </si>
-  <si>
     <t>ROMAN J ISRAEL ESQ</t>
   </si>
   <si>
-    <t>DDCO          52127</t>
-  </si>
-  <si>
     <t>SECRETARIAT</t>
   </si>
   <si>
     <t>LANE,DIANE</t>
   </si>
   <si>
-    <t>DDWD       10633500</t>
-  </si>
-  <si>
     <t>PRACTICAL MAGIC</t>
   </si>
   <si>
     <t>BULLOCK,SANDRA</t>
   </si>
   <si>
-    <t>DDWA     1000112617</t>
-  </si>
-  <si>
     <t>KIDNAP</t>
   </si>
   <si>
     <t>BERRY,HALLE</t>
   </si>
   <si>
-    <t>DDMC       91191186</t>
-  </si>
-  <si>
     <t>BLOOD IN BLOOD OUT</t>
   </si>
   <si>
     <t>BORREGO,JESSE</t>
   </si>
   <si>
-    <t>DDWD       01969400</t>
-  </si>
-  <si>
     <t>MEAN GIRLS</t>
   </si>
   <si>
-    <t>DDPA    59159998000</t>
-  </si>
-  <si>
     <t>O BROTHER WHERE ART THOU?</t>
   </si>
   <si>
     <t>CLOONEY,GEORGE</t>
   </si>
   <si>
-    <t>DDWD       02165400</t>
-  </si>
-  <si>
     <t>GRANTCHESTER:SEASON 2</t>
   </si>
   <si>
-    <t>DDPBSP     MST64620</t>
-  </si>
-  <si>
     <t>MASTERPIECE:COLLECTION (UK EDITION)</t>
   </si>
   <si>
     <t>COYLE,RICHARD</t>
   </si>
   <si>
-    <t>DDPBSP      MS61703</t>
-  </si>
-  <si>
     <t>HALLOWEENTOWN DOUBLE FEATURE</t>
   </si>
   <si>
     <t>BROWN,KIMBERLY</t>
   </si>
   <si>
-    <t>DDWD       04113000</t>
-  </si>
-  <si>
     <t>Television</t>
   </si>
   <si>
@@ -1975,237 +1315,150 @@
     <t>WALKING DEAD</t>
   </si>
   <si>
-    <t>DDCS          52476</t>
-  </si>
-  <si>
     <t>MY MOTHER AND OTHER STRANGERS</t>
   </si>
   <si>
     <t>MORAHAN,HATTIE</t>
   </si>
   <si>
-    <t>DDPBSP      MMOS600</t>
-  </si>
-  <si>
     <t>BLAZING SADDLES SE</t>
   </si>
   <si>
     <t>BROOKS,MEL</t>
   </si>
   <si>
-    <t>DDWA     1000000873</t>
-  </si>
-  <si>
     <t>WINCHESTER</t>
   </si>
   <si>
     <t>MIRREN,HELEN</t>
   </si>
   <si>
-    <t>DDLGHE        54185</t>
-  </si>
-  <si>
     <t>HANDMAID'S TALE:SEASON 1</t>
   </si>
   <si>
     <t>MOSS,ELIZABETH</t>
   </si>
   <si>
-    <t>DDMGM      M136099A</t>
-  </si>
-  <si>
     <t>DONOVAN'S REEF</t>
   </si>
   <si>
     <t>WAYNE,JOHN</t>
   </si>
   <si>
-    <t>DDPA    59191014000</t>
-  </si>
-  <si>
     <t>ENDEAVOUR:SERIES 3 (UK EDITION)</t>
   </si>
   <si>
-    <t>DDPBSP     MST64629</t>
-  </si>
-  <si>
     <t>RATATOUILLE</t>
   </si>
   <si>
     <t>OSWALT,PATTON</t>
   </si>
   <si>
-    <t>DDWD       05371400</t>
-  </si>
-  <si>
     <t>HOME ALONE 2:LOST IN NEW YORK</t>
   </si>
   <si>
-    <t>DDTW        2331415</t>
-  </si>
-  <si>
     <t>BLUE BLOODS:FIRST SEASON</t>
   </si>
   <si>
-    <t>DDPA         821884</t>
-  </si>
-  <si>
     <t>HUNT FOR RED OCTOBER</t>
   </si>
   <si>
     <t>CONNERY,SEAN</t>
   </si>
   <si>
-    <t>DDPA         056404</t>
-  </si>
-  <si>
     <t>BAD MOMS</t>
   </si>
   <si>
     <t>KUNIS,MILA</t>
   </si>
   <si>
-    <t>DDMC       64179495</t>
-  </si>
-  <si>
     <t>HAPPY DEATH DAY</t>
   </si>
   <si>
     <t>ROTHE,JESSICA</t>
   </si>
   <si>
-    <t>DDMC       61193259</t>
-  </si>
-  <si>
     <t>SHAWSHANK REDEMPTION</t>
   </si>
   <si>
     <t>ROBBINS,TIM</t>
   </si>
   <si>
-    <t>DDWA     1000028956</t>
-  </si>
-  <si>
     <t>AFRICAN QUEEN</t>
   </si>
   <si>
-    <t>DDPA    59188278000</t>
-  </si>
-  <si>
     <t>SABRINA</t>
   </si>
   <si>
-    <t>DDPA    59160039000</t>
-  </si>
-  <si>
     <t>LM MONTGOMERY'S ANNE OF GREEN GABLES</t>
   </si>
   <si>
     <t>BALLENTINE,ELLA</t>
   </si>
   <si>
-    <t>DDPBSP      ANNE602</t>
-  </si>
-  <si>
     <t>WHAT ABOUT BOB?</t>
   </si>
   <si>
     <t>DREYFUSS,RICHARD</t>
   </si>
   <si>
-    <t>DDWD       01836200</t>
-  </si>
-  <si>
     <t>JERSEY BOYS</t>
   </si>
   <si>
     <t>PIAZZA,VINCENT</t>
   </si>
   <si>
-    <t>DDWA     1000446291</t>
-  </si>
-  <si>
     <t>FIFTY SHADES DARKER</t>
   </si>
   <si>
-    <t>DDMC       61180933</t>
-  </si>
-  <si>
     <t>WHILE YOU WERE SLEEPING</t>
   </si>
   <si>
-    <t>DDWD       01368000</t>
-  </si>
-  <si>
     <t>DISNEY ZOMBIES</t>
   </si>
   <si>
     <t>DONNELLY,MEG</t>
   </si>
   <si>
-    <t>DDWD  1491820000000</t>
-  </si>
-  <si>
     <t>MATILDA SPECIAL EDITION</t>
   </si>
   <si>
     <t>WILSON,MARA</t>
   </si>
   <si>
-    <t>DDCO          01353</t>
-  </si>
-  <si>
     <t>NCIS:LOS ANGELES EIGHTH SEASON</t>
   </si>
   <si>
     <t>NCIS: LOS ANGELES</t>
   </si>
   <si>
-    <t>DDPA    59189805000</t>
-  </si>
-  <si>
     <t>VAMPIRINA:VOL 1</t>
   </si>
   <si>
     <t>VAN DER BEEK,JAMES</t>
   </si>
   <si>
-    <t>DDWD       14639000</t>
-  </si>
-  <si>
     <t>TEN COMMANDMENTS</t>
   </si>
   <si>
     <t>HESTON,CHARLTON</t>
   </si>
   <si>
-    <t>DDPA    59160078000</t>
-  </si>
-  <si>
     <t>HOGAN'S HEROES:COMPLETE SERIES</t>
   </si>
   <si>
     <t>HOGAN'S HEROES</t>
   </si>
   <si>
-    <t>DDPA    59176727000</t>
-  </si>
-  <si>
     <t>ELEMENTARY:FIFTH SEASON</t>
   </si>
   <si>
     <t>ELEMENTARY</t>
   </si>
   <si>
-    <t>DDPA    59189809000</t>
-  </si>
-  <si>
     <t>LION KING II:SIMBA'S PRIDE</t>
   </si>
   <si>
-    <t>DDWD  1448610000000</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -2213,6 +1466,753 @@
   </si>
   <si>
     <t>https://theredcarpet.baker-taylor-site.com/Portals/0/Documents/Top250-DVD.xlsx</t>
+  </si>
+  <si>
+    <t>DDWDM 14767600</t>
+  </si>
+  <si>
+    <t>DDWD 14899900</t>
+  </si>
+  <si>
+    <t>DDWD 1476710000000</t>
+  </si>
+  <si>
+    <t>DDWDM 14495800</t>
+  </si>
+  <si>
+    <t>DDWD 14629100</t>
+  </si>
+  <si>
+    <t>DDMC 61180665A</t>
+  </si>
+  <si>
+    <t>DDWA 1000618680</t>
+  </si>
+  <si>
+    <t>DDCO 48828</t>
+  </si>
+  <si>
+    <t>DDWA 1000000276</t>
+  </si>
+  <si>
+    <t>DDWD 14768900</t>
+  </si>
+  <si>
+    <t>DDCO 48858</t>
+  </si>
+  <si>
+    <t>DDWD 14485400</t>
+  </si>
+  <si>
+    <t>DDWA 1000160243</t>
+  </si>
+  <si>
+    <t>DDCO 48809</t>
+  </si>
+  <si>
+    <t>DDWD 14502900</t>
+  </si>
+  <si>
+    <t>DDCO 50110</t>
+  </si>
+  <si>
+    <t>DDTW 2306834</t>
+  </si>
+  <si>
+    <t>DDCO 48852</t>
+  </si>
+  <si>
+    <t>DDWD 12351500</t>
+  </si>
+  <si>
+    <t>DDPBSP MS5170401</t>
+  </si>
+  <si>
+    <t>DDWA 1000089173</t>
+  </si>
+  <si>
+    <t>DDWD 14482400</t>
+  </si>
+  <si>
+    <t>DDTW 2332786</t>
+  </si>
+  <si>
+    <t>DDWA 1000632277</t>
+  </si>
+  <si>
+    <t>DDPA 59190430000</t>
+  </si>
+  <si>
+    <t>DDTW 2327532</t>
+  </si>
+  <si>
+    <t>DDWD 14327700</t>
+  </si>
+  <si>
+    <t>DDWD 13401300</t>
+  </si>
+  <si>
+    <t>DDPBSP MS61701</t>
+  </si>
+  <si>
+    <t>DDLGHE 51520</t>
+  </si>
+  <si>
+    <t>DDWD 10260900</t>
+  </si>
+  <si>
+    <t>DDPA 59189664000</t>
+  </si>
+  <si>
+    <t>DDTHE 1000032206</t>
+  </si>
+  <si>
+    <t>DDWA 1000634202</t>
+  </si>
+  <si>
+    <t>DDTHE 1000032458</t>
+  </si>
+  <si>
+    <t>DDMC 61168755</t>
+  </si>
+  <si>
+    <t>DDPBSP VWAR600</t>
+  </si>
+  <si>
+    <t>DDWD 14149600</t>
+  </si>
+  <si>
+    <t>DDMC 61180964A</t>
+  </si>
+  <si>
+    <t>DDMC 61178795</t>
+  </si>
+  <si>
+    <t>DDTW 2354049</t>
+  </si>
+  <si>
+    <t>DDPA 59193653000</t>
+  </si>
+  <si>
+    <t>DDPA 59195055000</t>
+  </si>
+  <si>
+    <t>DDMC 61180488</t>
+  </si>
+  <si>
+    <t>DDWA 1000633531</t>
+  </si>
+  <si>
+    <t>DDPBSP POLD6200</t>
+  </si>
+  <si>
+    <t>DDWA 1000634326</t>
+  </si>
+  <si>
+    <t>DDCO 51321</t>
+  </si>
+  <si>
+    <t>DDPA 59160095000</t>
+  </si>
+  <si>
+    <t>DDMC 61182951</t>
+  </si>
+  <si>
+    <t>DDPBSP MST64630</t>
+  </si>
+  <si>
+    <t>DDTW 2347037</t>
+  </si>
+  <si>
+    <t>DDPA 59180922000</t>
+  </si>
+  <si>
+    <t>DDPA 59187971000</t>
+  </si>
+  <si>
+    <t>DDTW 2332271</t>
+  </si>
+  <si>
+    <t>DDLGHE 53749</t>
+  </si>
+  <si>
+    <t>DDTW 2332873</t>
+  </si>
+  <si>
+    <t>DDPA 59194412000</t>
+  </si>
+  <si>
+    <t>DDTW 2327727</t>
+  </si>
+  <si>
+    <t>DDPBSP POLD6300</t>
+  </si>
+  <si>
+    <t>DDTW 2339392</t>
+  </si>
+  <si>
+    <t>DDWD 14479200</t>
+  </si>
+  <si>
+    <t>DDWD 01957800</t>
+  </si>
+  <si>
+    <t>DDHBO 1000649608</t>
+  </si>
+  <si>
+    <t>DDTW 2341626</t>
+  </si>
+  <si>
+    <t>DDWA 1000634439</t>
+  </si>
+  <si>
+    <t>DDPBSP POLD600</t>
+  </si>
+  <si>
+    <t>DDPBSP DAST650</t>
+  </si>
+  <si>
+    <t>DDWD 11179000</t>
+  </si>
+  <si>
+    <t>DDPA 871964</t>
+  </si>
+  <si>
+    <t>DDWD 01307800</t>
+  </si>
+  <si>
+    <t>DDMC 62184511</t>
+  </si>
+  <si>
+    <t>DDTW 2331401</t>
+  </si>
+  <si>
+    <t>DDWA 1000042281</t>
+  </si>
+  <si>
+    <t>DDMC 62184532</t>
+  </si>
+  <si>
+    <t>DDMC 61180981</t>
+  </si>
+  <si>
+    <t>DDLGHE 52132</t>
+  </si>
+  <si>
+    <t>DDWA 1000643784</t>
+  </si>
+  <si>
+    <t>DDMC 61181260</t>
+  </si>
+  <si>
+    <t>DDTW 2334005A</t>
+  </si>
+  <si>
+    <t>DDTW 2339193</t>
+  </si>
+  <si>
+    <t>DDWDM 12334400</t>
+  </si>
+  <si>
+    <t>DDLGHE 53097</t>
+  </si>
+  <si>
+    <t>DDPA 59194279000</t>
+  </si>
+  <si>
+    <t>DDWA 1000035882</t>
+  </si>
+  <si>
+    <t>DDWA 1000001540</t>
+  </si>
+  <si>
+    <t>DDWD 02155300</t>
+  </si>
+  <si>
+    <t>DDCO 52782</t>
+  </si>
+  <si>
+    <t>DDLGHE 54244</t>
+  </si>
+  <si>
+    <t>DDMC 61172623</t>
+  </si>
+  <si>
+    <t>DDTW 2341701</t>
+  </si>
+  <si>
+    <t>DDWA 1000025419</t>
+  </si>
+  <si>
+    <t>DDTW 2331391</t>
+  </si>
+  <si>
+    <t>DDCO 27498</t>
+  </si>
+  <si>
+    <t>DDPBSP TUNL620</t>
+  </si>
+  <si>
+    <t>DDPA 59173264000</t>
+  </si>
+  <si>
+    <t>DDPA 59194132000</t>
+  </si>
+  <si>
+    <t>DDWA 1000287473</t>
+  </si>
+  <si>
+    <t>DDWA 1000025415</t>
+  </si>
+  <si>
+    <t>DDHBO 1000648142</t>
+  </si>
+  <si>
+    <t>DDPA 59195579000</t>
+  </si>
+  <si>
+    <t>DDCO 51885</t>
+  </si>
+  <si>
+    <t>DDPA 59196307000</t>
+  </si>
+  <si>
+    <t>DDPA 59189807000</t>
+  </si>
+  <si>
+    <t>DDWD 03042200</t>
+  </si>
+  <si>
+    <t>DDWA 1000597183</t>
+  </si>
+  <si>
+    <t>DDCO 48843</t>
+  </si>
+  <si>
+    <t>DDLGHE 52932</t>
+  </si>
+  <si>
+    <t>DDTW 2341780</t>
+  </si>
+  <si>
+    <t>DDMC 36194505</t>
+  </si>
+  <si>
+    <t>DDWD 10939600</t>
+  </si>
+  <si>
+    <t>DDMC 62195000</t>
+  </si>
+  <si>
+    <t>DDWA 1000334194</t>
+  </si>
+  <si>
+    <t>DDWD 03997200</t>
+  </si>
+  <si>
+    <t>DDMC 62184536</t>
+  </si>
+  <si>
+    <t>DDCO 11642</t>
+  </si>
+  <si>
+    <t>DDLGHE 53399</t>
+  </si>
+  <si>
+    <t>DDWD 10779900</t>
+  </si>
+  <si>
+    <t>DDMC 64186843</t>
+  </si>
+  <si>
+    <t>DDPA 59183768000</t>
+  </si>
+  <si>
+    <t>DDHBO 1000650980</t>
+  </si>
+  <si>
+    <t>DDNICO 59189962000</t>
+  </si>
+  <si>
+    <t>DDWD 02151600</t>
+  </si>
+  <si>
+    <t>DDPBSP MAS64701</t>
+  </si>
+  <si>
+    <t>DDPBSP MS61704</t>
+  </si>
+  <si>
+    <t>DDCO 52382</t>
+  </si>
+  <si>
+    <t>DDPA 146814</t>
+  </si>
+  <si>
+    <t>DDTW 2322685</t>
+  </si>
+  <si>
+    <t>DDWA 1000634410</t>
+  </si>
+  <si>
+    <t>DDWD 10878300</t>
+  </si>
+  <si>
+    <t>DDPA 59173490000</t>
+  </si>
+  <si>
+    <t>DDMC 61190452</t>
+  </si>
+  <si>
+    <t>DDLGHE 53133</t>
+  </si>
+  <si>
+    <t>DDPA 59183293000</t>
+  </si>
+  <si>
+    <t>DDHBO 1000652748</t>
+  </si>
+  <si>
+    <t>DDPBSP MSTN600</t>
+  </si>
+  <si>
+    <t>DDLGHE 54152</t>
+  </si>
+  <si>
+    <t>DDCO 51036</t>
+  </si>
+  <si>
+    <t>DDCO 51471</t>
+  </si>
+  <si>
+    <t>DDPA 59172274000</t>
+  </si>
+  <si>
+    <t>DDPA 59189902000</t>
+  </si>
+  <si>
+    <t>DDBRGP 94189303000</t>
+  </si>
+  <si>
+    <t>DDWA 1000575489</t>
+  </si>
+  <si>
+    <t>DDTW 2333032</t>
+  </si>
+  <si>
+    <t>DDMC 57189553</t>
+  </si>
+  <si>
+    <t>DDLGHE 53412</t>
+  </si>
+  <si>
+    <t>DDPBSP MS61702</t>
+  </si>
+  <si>
+    <t>DDLGHE 52286</t>
+  </si>
+  <si>
+    <t>DDPBSP MST64600</t>
+  </si>
+  <si>
+    <t>DDWA 1000634434</t>
+  </si>
+  <si>
+    <t>DDLGHE 52729</t>
+  </si>
+  <si>
+    <t>DDLGHE 53646</t>
+  </si>
+  <si>
+    <t>DDPA 59159904000</t>
+  </si>
+  <si>
+    <t>DDWD 11941900</t>
+  </si>
+  <si>
+    <t>DDTW 2347109</t>
+  </si>
+  <si>
+    <t>DDWD 10226200</t>
+  </si>
+  <si>
+    <t>DDPA 59159878000</t>
+  </si>
+  <si>
+    <t>DDMC 55192090</t>
+  </si>
+  <si>
+    <t>DDWD 10323300</t>
+  </si>
+  <si>
+    <t>DDWD 02471900</t>
+  </si>
+  <si>
+    <t>DDWD 04000400</t>
+  </si>
+  <si>
+    <t>DDMC 55186698</t>
+  </si>
+  <si>
+    <t>DDLGHE 53583</t>
+  </si>
+  <si>
+    <t>DDMC 57187470</t>
+  </si>
+  <si>
+    <t>DDWA 1000632310</t>
+  </si>
+  <si>
+    <t>DDWD 10440400</t>
+  </si>
+  <si>
+    <t>DDWD 10879100</t>
+  </si>
+  <si>
+    <t>DDABCD 14414300</t>
+  </si>
+  <si>
+    <t>DDLGHE 53933</t>
+  </si>
+  <si>
+    <t>DDWA 1000413966</t>
+  </si>
+  <si>
+    <t>DDWD 11965000</t>
+  </si>
+  <si>
+    <t>DDWA 1000025431</t>
+  </si>
+  <si>
+    <t>DDWD 11965100</t>
+  </si>
+  <si>
+    <t>DDMC 64181406</t>
+  </si>
+  <si>
+    <t>DDWD 03638700</t>
+  </si>
+  <si>
+    <t>DDMC 64188806</t>
+  </si>
+  <si>
+    <t>DDPA 59197344000</t>
+  </si>
+  <si>
+    <t>DDBBCV 1000645240</t>
+  </si>
+  <si>
+    <t>DDWA 1000183517</t>
+  </si>
+  <si>
+    <t>DDWD 04047400</t>
+  </si>
+  <si>
+    <t>DDMC 61172747</t>
+  </si>
+  <si>
+    <t>DDWA 1000118238</t>
+  </si>
+  <si>
+    <t>DDCO 49577</t>
+  </si>
+  <si>
+    <t>DDPA 59159937000</t>
+  </si>
+  <si>
+    <t>DDMC 25193712</t>
+  </si>
+  <si>
+    <t>DDPA 59180586000</t>
+  </si>
+  <si>
+    <t>DDTW 2343557</t>
+  </si>
+  <si>
+    <t>DDLGHE 52678</t>
+  </si>
+  <si>
+    <t>DDMGM M136111</t>
+  </si>
+  <si>
+    <t>DDPA 139664</t>
+  </si>
+  <si>
+    <t>DDCO 50103</t>
+  </si>
+  <si>
+    <t>DDUVID DE5651</t>
+  </si>
+  <si>
+    <t>DDLGHE 54111</t>
+  </si>
+  <si>
+    <t>DDLGHE 53457</t>
+  </si>
+  <si>
+    <t>DDPBSP MAS64711</t>
+  </si>
+  <si>
+    <t>DDMC 24186687A</t>
+  </si>
+  <si>
+    <t>DDPBSP PEGC601</t>
+  </si>
+  <si>
+    <t>DDPA 59195752000</t>
+  </si>
+  <si>
+    <t>DDTW 2343711</t>
+  </si>
+  <si>
+    <t>DDCO 50710</t>
+  </si>
+  <si>
+    <t>DDWA 1000619743</t>
+  </si>
+  <si>
+    <t>DDNICO 59191020000</t>
+  </si>
+  <si>
+    <t>DDMC 62184519</t>
+  </si>
+  <si>
+    <t>DDWD 02912600</t>
+  </si>
+  <si>
+    <t>DDMC 61020412</t>
+  </si>
+  <si>
+    <t>DDSYMV 54171</t>
+  </si>
+  <si>
+    <t>DDTW 2310418</t>
+  </si>
+  <si>
+    <t>DDCO 09532</t>
+  </si>
+  <si>
+    <t>DDTW 2299264</t>
+  </si>
+  <si>
+    <t>DDWA 1000189966</t>
+  </si>
+  <si>
+    <t>DDCO 52127</t>
+  </si>
+  <si>
+    <t>DDWD 10633500</t>
+  </si>
+  <si>
+    <t>DDWA 1000112617</t>
+  </si>
+  <si>
+    <t>DDMC 91191186</t>
+  </si>
+  <si>
+    <t>DDWD 01969400</t>
+  </si>
+  <si>
+    <t>DDPA 59159998000</t>
+  </si>
+  <si>
+    <t>DDWD 02165400</t>
+  </si>
+  <si>
+    <t>DDPBSP MST64620</t>
+  </si>
+  <si>
+    <t>DDPBSP MS61703</t>
+  </si>
+  <si>
+    <t>DDWD 04113000</t>
+  </si>
+  <si>
+    <t>DDCS 52476</t>
+  </si>
+  <si>
+    <t>DDPBSP MMOS600</t>
+  </si>
+  <si>
+    <t>DDWA 1000000873</t>
+  </si>
+  <si>
+    <t>DDLGHE 54185</t>
+  </si>
+  <si>
+    <t>DDMGM M136099A</t>
+  </si>
+  <si>
+    <t>DDPA 59191014000</t>
+  </si>
+  <si>
+    <t>DDPBSP MST64629</t>
+  </si>
+  <si>
+    <t>DDWD 05371400</t>
+  </si>
+  <si>
+    <t>DDTW 2331415</t>
+  </si>
+  <si>
+    <t>DDPA 821884</t>
+  </si>
+  <si>
+    <t>DDPA 056404</t>
+  </si>
+  <si>
+    <t>DDMC 64179495</t>
+  </si>
+  <si>
+    <t>DDMC 61193259</t>
+  </si>
+  <si>
+    <t>DDWA 1000028956</t>
+  </si>
+  <si>
+    <t>DDPA 59188278000</t>
+  </si>
+  <si>
+    <t>DDPA 59160039000</t>
+  </si>
+  <si>
+    <t>DDPBSP ANNE602</t>
+  </si>
+  <si>
+    <t>DDWD 01836200</t>
+  </si>
+  <si>
+    <t>DDWA 1000446291</t>
+  </si>
+  <si>
+    <t>DDMC 61180933</t>
+  </si>
+  <si>
+    <t>DDWD 01368000</t>
+  </si>
+  <si>
+    <t>DDWD 1491820000000</t>
+  </si>
+  <si>
+    <t>DDCO 01353</t>
+  </si>
+  <si>
+    <t>DDPA 59189805000</t>
+  </si>
+  <si>
+    <t>DDWD 14639000</t>
+  </si>
+  <si>
+    <t>DDPA 59160078000</t>
+  </si>
+  <si>
+    <t>DDPA 59176727000</t>
+  </si>
+  <si>
+    <t>DDPA 59189809000</t>
+  </si>
+  <si>
+    <t>DDWD 1448610000000</t>
   </si>
 </sst>
 </file>
@@ -2725,23 +2725,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E434C7-3094-4F14-A308-A7F518F9B546}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>726</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -2756,25 +2756,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A21CF2-F045-4933-8F09-4E42461A7DCE}">
   <dimension ref="A1:I251"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>724</v>
+        <v>475</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2801,7 +2799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2809,7 +2807,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>478</v>
       </c>
       <c r="D2">
         <v>786936856354</v>
@@ -2824,21 +2822,21 @@
         <v>29.99</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1">
         <v>43235</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>479</v>
       </c>
       <c r="D3">
         <v>786936856996</v>
@@ -2853,21 +2851,21 @@
         <v>29.99</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1">
         <v>43186</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>480</v>
       </c>
       <c r="D4">
         <v>786936856279</v>
@@ -2882,21 +2880,21 @@
         <v>29.99</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I4" s="1">
         <v>43158</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>481</v>
       </c>
       <c r="D5">
         <v>786936854305</v>
@@ -2911,21 +2909,21 @@
         <v>29.99</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" s="1">
         <v>42969</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>482</v>
       </c>
       <c r="D6">
         <v>786936854565</v>
@@ -2940,21 +2938,21 @@
         <v>29.99</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I6" s="1">
         <v>43046</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>483</v>
       </c>
       <c r="D7">
         <v>25192367717</v>
@@ -2969,21 +2967,21 @@
         <v>19.98</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I7" s="1">
         <v>43221</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>484</v>
       </c>
       <c r="D8">
         <v>883929552962</v>
@@ -2998,21 +2996,21 @@
         <v>18.940000000000001</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" s="1">
         <v>43256</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>485</v>
       </c>
       <c r="D9">
         <v>43396488281</v>
@@ -3027,21 +3025,21 @@
         <v>19.989999999999998</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I9" s="1">
         <v>43133</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>486</v>
       </c>
       <c r="D10">
         <v>85391219828</v>
@@ -3056,21 +3054,21 @@
         <v>5.97</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I10" s="1">
         <v>40428</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>487</v>
       </c>
       <c r="D11">
         <v>786936856422</v>
@@ -3085,21 +3083,21 @@
         <v>29.99</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I11" s="1">
         <v>43256</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>488</v>
       </c>
       <c r="D12">
         <v>43396488588</v>
@@ -3114,21 +3112,21 @@
         <v>19.989999999999998</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12" s="1">
         <v>43133</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>489</v>
       </c>
       <c r="D13">
         <v>786936853827</v>
@@ -3143,21 +3141,21 @@
         <v>16.989999999999998</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I13" s="1">
         <v>43220</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>490</v>
       </c>
       <c r="D14">
         <v>883929145720</v>
@@ -3172,21 +3170,21 @@
         <v>5.97</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I14" s="1">
         <v>40435</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D15">
         <v>786936855982</v>
@@ -3201,21 +3199,21 @@
         <v>29.99</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" s="1">
         <v>43165</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>491</v>
       </c>
       <c r="D16">
         <v>43396488090</v>
@@ -3230,21 +3228,21 @@
         <v>19.989999999999998</v>
       </c>
       <c r="H16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I16" s="1">
         <v>43133</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>492</v>
       </c>
       <c r="D17">
         <v>786936854411</v>
@@ -3259,21 +3257,21 @@
         <v>19.989999999999998</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I17" s="1">
         <v>43220</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>493</v>
       </c>
       <c r="D18">
         <v>43396501102</v>
@@ -3288,21 +3286,21 @@
         <v>19.989999999999998</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I18" s="1">
         <v>43133</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>494</v>
       </c>
       <c r="D19">
         <v>24543068358</v>
@@ -3317,21 +3315,21 @@
         <v>14.98</v>
       </c>
       <c r="H19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I19" s="1">
         <v>42283</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>495</v>
       </c>
       <c r="D20">
         <v>43396488526</v>
@@ -3346,21 +3344,21 @@
         <v>30.99</v>
       </c>
       <c r="H20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I20" s="1">
         <v>43179</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>496</v>
       </c>
       <c r="D21">
         <v>786936843774</v>
@@ -3375,21 +3373,21 @@
         <v>14.99</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I21" s="1">
         <v>43220</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>497</v>
       </c>
       <c r="D22">
         <v>841887035491</v>
@@ -3404,21 +3402,21 @@
         <v>49.99</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I22" s="1">
         <v>43130</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>498</v>
       </c>
       <c r="D23">
         <v>883929057436</v>
@@ -3433,21 +3431,21 @@
         <v>12.97</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I23" s="1">
         <v>42766</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>499</v>
       </c>
       <c r="D24">
         <v>786936853773</v>
@@ -3462,21 +3460,21 @@
         <v>29.99</v>
       </c>
       <c r="H24" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I24" s="1">
         <v>42976</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="D25">
         <v>24543327868</v>
@@ -3491,21 +3489,21 @@
         <v>29.98</v>
       </c>
       <c r="H25" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I25" s="1">
         <v>43200</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>501</v>
       </c>
       <c r="D26">
         <v>883929566648</v>
@@ -3520,21 +3518,21 @@
         <v>39.99</v>
       </c>
       <c r="H26" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="I26" s="1">
         <v>43098</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>502</v>
       </c>
       <c r="D27">
         <v>32429280114</v>
@@ -3549,21 +3547,21 @@
         <v>17.989999999999998</v>
       </c>
       <c r="H27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I27" s="1">
         <v>43116</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>503</v>
       </c>
       <c r="D28">
         <v>24543275329</v>
@@ -3578,21 +3576,21 @@
         <v>17.98</v>
       </c>
       <c r="H28" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I28" s="1">
         <v>42958</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>504</v>
       </c>
       <c r="D29">
         <v>786936852417</v>
@@ -3607,21 +3605,21 @@
         <v>29.99</v>
       </c>
       <c r="H29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I29" s="1">
         <v>42801</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>505</v>
       </c>
       <c r="D30">
         <v>786936849806</v>
@@ -3636,21 +3634,21 @@
         <v>29.99</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I30" s="1">
         <v>42465</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>506</v>
       </c>
       <c r="D31">
         <v>841887033855</v>
@@ -3665,21 +3663,21 @@
         <v>39.99</v>
       </c>
       <c r="H31" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I31" s="1">
         <v>42983</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>507</v>
       </c>
       <c r="D32">
         <v>31398259251</v>
@@ -3694,21 +3692,21 @@
         <v>19.98</v>
       </c>
       <c r="H32" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I32" s="1">
         <v>43256</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>508</v>
       </c>
       <c r="D33">
         <v>786936795332</v>
@@ -3723,21 +3721,21 @@
         <v>19.989999999999998</v>
       </c>
       <c r="H33" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I33" s="1">
         <v>42170</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>509</v>
       </c>
       <c r="D34">
         <v>32429277497</v>
@@ -3752,21 +3750,21 @@
         <v>11.99</v>
       </c>
       <c r="H34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I34" s="1">
         <v>43109</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>510</v>
       </c>
       <c r="D35">
         <v>794043478321</v>
@@ -3781,21 +3779,21 @@
         <v>5.97</v>
       </c>
       <c r="H35" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I35" s="1">
         <v>40428</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>511</v>
       </c>
       <c r="D36">
         <v>883929570706</v>
@@ -3810,21 +3808,21 @@
         <v>18.940000000000001</v>
       </c>
       <c r="H36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I36" s="1">
         <v>43256</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>512</v>
       </c>
       <c r="D37">
         <v>794043690426</v>
@@ -3839,21 +3837,21 @@
         <v>5.97</v>
       </c>
       <c r="H37" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I37" s="1">
         <v>40568</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>513</v>
       </c>
       <c r="D38">
         <v>25192285776</v>
@@ -3868,21 +3866,21 @@
         <v>19.98</v>
       </c>
       <c r="H38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I38" s="1">
         <v>43102</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>514</v>
       </c>
       <c r="D39">
         <v>841887033398</v>
@@ -3897,21 +3895,21 @@
         <v>99.99</v>
       </c>
       <c r="H39" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I39" s="1">
         <v>42997</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>515</v>
       </c>
       <c r="D40">
         <v>786936852332</v>
@@ -3926,21 +3924,21 @@
         <v>29.99</v>
       </c>
       <c r="H40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I40" s="1">
         <v>42829</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>516</v>
       </c>
       <c r="D41">
         <v>25192369582</v>
@@ -3955,21 +3953,21 @@
         <v>19.98</v>
       </c>
       <c r="H41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I41" s="1">
         <v>43102</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>517</v>
       </c>
       <c r="D42">
         <v>25192356766</v>
@@ -3984,21 +3982,21 @@
         <v>22.98</v>
       </c>
       <c r="H42" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I42" s="1">
         <v>42983</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>518</v>
       </c>
       <c r="D43">
         <v>24543417675</v>
@@ -4013,21 +4011,21 @@
         <v>29.98</v>
       </c>
       <c r="H43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I43" s="1">
         <v>43172</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="C44" t="s">
-        <v>139</v>
+        <v>519</v>
       </c>
       <c r="D44">
         <v>32429294814</v>
@@ -4042,21 +4040,21 @@
         <v>11.99</v>
       </c>
       <c r="H44" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I44" s="1">
         <v>43200</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>520</v>
       </c>
       <c r="D45">
         <v>32429301499</v>
@@ -4071,21 +4069,21 @@
         <v>17.989999999999998</v>
       </c>
       <c r="H45" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I45" s="1">
         <v>43207</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>521</v>
       </c>
       <c r="D46">
         <v>25192366635</v>
@@ -4100,21 +4098,21 @@
         <v>19.98</v>
       </c>
       <c r="H46" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I46" s="1">
         <v>42983</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="C47" t="s">
-        <v>147</v>
+        <v>522</v>
       </c>
       <c r="D47">
         <v>883929568499</v>
@@ -4129,21 +4127,21 @@
         <v>18.940000000000001</v>
       </c>
       <c r="H47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I47" s="1">
         <v>43136</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>523</v>
       </c>
       <c r="D48">
         <v>841887029230</v>
@@ -4158,21 +4156,21 @@
         <v>44.99</v>
       </c>
       <c r="H48" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I48" s="1">
         <v>42696</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s">
-        <v>153</v>
+        <v>524</v>
       </c>
       <c r="D49">
         <v>883929571482</v>
@@ -4187,21 +4185,21 @@
         <v>18.940000000000001</v>
       </c>
       <c r="H49" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I49" s="1">
         <v>43256</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="B50" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>156</v>
+        <v>525</v>
       </c>
       <c r="D50">
         <v>43396513211</v>
@@ -4216,21 +4214,21 @@
         <v>30.99</v>
       </c>
       <c r="H50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I50" s="1">
         <v>43221</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>526</v>
       </c>
       <c r="D51">
         <v>32429258496</v>
@@ -4245,21 +4243,21 @@
         <v>6.99</v>
       </c>
       <c r="H51" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="I51" s="1">
         <v>42850</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="C52" t="s">
-        <v>163</v>
+        <v>527</v>
       </c>
       <c r="D52">
         <v>25192387692</v>
@@ -4274,21 +4272,21 @@
         <v>19.98</v>
       </c>
       <c r="H52" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I52" s="1">
         <v>43102</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="C53" t="s">
-        <v>166</v>
+        <v>528</v>
       </c>
       <c r="D53">
         <v>841887029841</v>
@@ -4303,21 +4301,21 @@
         <v>39.99</v>
       </c>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I53" s="1">
         <v>42934</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="B54" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="C54" t="s">
-        <v>169</v>
+        <v>529</v>
       </c>
       <c r="D54">
         <v>24543470373</v>
@@ -4332,21 +4330,21 @@
         <v>29.98</v>
       </c>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I54" s="1">
         <v>43207</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="B55" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="C55" t="s">
-        <v>172</v>
+        <v>530</v>
       </c>
       <c r="D55">
         <v>32429251633</v>
@@ -4361,21 +4359,21 @@
         <v>16.989999999999998</v>
       </c>
       <c r="H55" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I55" s="1">
         <v>42654</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="B56" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>175</v>
+        <v>531</v>
       </c>
       <c r="D56">
         <v>32429272041</v>
@@ -4390,21 +4388,21 @@
         <v>11.99</v>
       </c>
       <c r="H56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I56" s="1">
         <v>43083</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="B57" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="C57" t="s">
-        <v>178</v>
+        <v>532</v>
       </c>
       <c r="D57">
         <v>24543322719</v>
@@ -4419,21 +4417,21 @@
         <v>17.98</v>
       </c>
       <c r="H57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I57" s="1">
         <v>43245</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="B58" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="C58" t="s">
-        <v>181</v>
+        <v>533</v>
       </c>
       <c r="D58">
         <v>31398277439</v>
@@ -4448,21 +4446,21 @@
         <v>29.95</v>
       </c>
       <c r="H58" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I58" s="1">
         <v>43165</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="B59" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>534</v>
       </c>
       <c r="D59">
         <v>24543328735</v>
@@ -4477,21 +4475,21 @@
         <v>17.98</v>
       </c>
       <c r="H59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I59" s="1">
         <v>43245</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="B60" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="C60" t="s">
-        <v>187</v>
+        <v>535</v>
       </c>
       <c r="D60">
         <v>32429297907</v>
@@ -4506,21 +4504,21 @@
         <v>16.989999999999998</v>
       </c>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I60" s="1">
         <v>43151</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="B61" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="C61" t="s">
-        <v>190</v>
+        <v>536</v>
       </c>
       <c r="D61">
         <v>24543277279</v>
@@ -4535,21 +4533,21 @@
         <v>29.98</v>
       </c>
       <c r="H61" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I61" s="1">
         <v>43172</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="C62" t="s">
-        <v>192</v>
+        <v>537</v>
       </c>
       <c r="D62">
         <v>841887034128</v>
@@ -4564,21 +4562,21 @@
         <v>44.99</v>
       </c>
       <c r="H62" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I62" s="1">
         <v>43046</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>194</v>
+        <v>538</v>
       </c>
       <c r="D63">
         <v>24543393924</v>
@@ -4593,21 +4591,21 @@
         <v>29.98</v>
       </c>
       <c r="H63" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I63" s="1">
         <v>43158</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="B64" t="s">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="C64" t="s">
-        <v>197</v>
+        <v>539</v>
       </c>
       <c r="D64">
         <v>786936853711</v>
@@ -4622,21 +4620,21 @@
         <v>29.99</v>
       </c>
       <c r="H64" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I64" s="1">
         <v>42892</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="B65" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="C65" t="s">
-        <v>200</v>
+        <v>540</v>
       </c>
       <c r="D65">
         <v>717951008435</v>
@@ -4651,21 +4649,21 @@
         <v>9.99</v>
       </c>
       <c r="H65" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I65" s="1">
         <v>42734</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="B66" t="s">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>203</v>
+        <v>541</v>
       </c>
       <c r="D66">
         <v>883929598564</v>
@@ -4680,21 +4678,21 @@
         <v>59.99</v>
       </c>
       <c r="H66" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="I66" s="1">
         <v>43081</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="B67" t="s">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="C67" t="s">
-        <v>207</v>
+        <v>542</v>
       </c>
       <c r="D67">
         <v>24543416265</v>
@@ -4709,21 +4707,21 @@
         <v>29.98</v>
       </c>
       <c r="H67" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I67" s="1">
         <v>43158</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="B68" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="C68" t="s">
-        <v>210</v>
+        <v>543</v>
       </c>
       <c r="D68">
         <v>883929572151</v>
@@ -4738,21 +4736,21 @@
         <v>18.940000000000001</v>
       </c>
       <c r="H68" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I68" s="1">
         <v>43256</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="B69" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="C69" t="s">
-        <v>212</v>
+        <v>544</v>
       </c>
       <c r="D69">
         <v>841887024617</v>
@@ -4767,21 +4765,21 @@
         <v>44.99</v>
       </c>
       <c r="H69" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I69" s="1">
         <v>42192</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>213</v>
+        <v>146</v>
       </c>
       <c r="B70" t="s">
-        <v>214</v>
+        <v>147</v>
       </c>
       <c r="C70" t="s">
-        <v>215</v>
+        <v>545</v>
       </c>
       <c r="D70">
         <v>841887028646</v>
@@ -4796,21 +4794,21 @@
         <v>129.99</v>
       </c>
       <c r="H70" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I70" s="1">
         <v>42661</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="B71" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="C71" t="s">
-        <v>218</v>
+        <v>546</v>
       </c>
       <c r="D71">
         <v>786936836134</v>
@@ -4825,21 +4823,21 @@
         <v>19.989999999999998</v>
       </c>
       <c r="H71" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I71" s="1">
         <v>42170</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="B72" t="s">
-        <v>220</v>
+        <v>151</v>
       </c>
       <c r="C72" t="s">
-        <v>221</v>
+        <v>547</v>
       </c>
       <c r="D72">
         <v>97368719644</v>
@@ -4854,21 +4852,21 @@
         <v>14.99</v>
       </c>
       <c r="H72" t="s">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="I72" s="1">
         <v>42122</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>223</v>
+        <v>153</v>
       </c>
       <c r="B73" t="s">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="C73" t="s">
-        <v>225</v>
+        <v>548</v>
       </c>
       <c r="D73">
         <v>717951000064</v>
@@ -4883,21 +4881,21 @@
         <v>9.99</v>
       </c>
       <c r="H73" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="I73" s="1">
         <v>42170</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c r="B74" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="C74" t="s">
-        <v>228</v>
+        <v>549</v>
       </c>
       <c r="D74">
         <v>25192396694</v>
@@ -4912,21 +4910,21 @@
         <v>19.98</v>
       </c>
       <c r="H74" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I74" s="1">
         <v>43242</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="B75" t="s">
-        <v>230</v>
+        <v>158</v>
       </c>
       <c r="C75" t="s">
-        <v>231</v>
+        <v>550</v>
       </c>
       <c r="D75">
         <v>24543314011</v>
@@ -4941,21 +4939,21 @@
         <v>17.98</v>
       </c>
       <c r="H75" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I75" s="1">
         <v>43112</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>232</v>
+        <v>159</v>
       </c>
       <c r="B76" t="s">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="C76" t="s">
-        <v>234</v>
+        <v>551</v>
       </c>
       <c r="D76">
         <v>883929035427</v>
@@ -4970,21 +4968,21 @@
         <v>5.97</v>
       </c>
       <c r="H76" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I76" s="1">
         <v>40568</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="B77" t="s">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c r="C77" t="s">
-        <v>237</v>
+        <v>552</v>
       </c>
       <c r="D77">
         <v>25192396915</v>
@@ -4999,21 +4997,21 @@
         <v>19.98</v>
       </c>
       <c r="H77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I77" s="1">
         <v>43221</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>238</v>
+        <v>163</v>
       </c>
       <c r="B78" t="s">
-        <v>239</v>
+        <v>164</v>
       </c>
       <c r="C78" t="s">
-        <v>240</v>
+        <v>553</v>
       </c>
       <c r="D78">
         <v>25192369759</v>
@@ -5028,21 +5026,21 @@
         <v>29.98</v>
       </c>
       <c r="H78" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I78" s="1">
         <v>43228</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
       <c r="B79" t="s">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c r="C79" t="s">
-        <v>243</v>
+        <v>554</v>
       </c>
       <c r="D79">
         <v>31398264545</v>
@@ -5057,21 +5055,21 @@
         <v>19.98</v>
       </c>
       <c r="H79" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I79" s="1">
         <v>43256</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="B80" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="C80" t="s">
-        <v>246</v>
+        <v>555</v>
       </c>
       <c r="D80">
         <v>883929588480</v>
@@ -5086,21 +5084,21 @@
         <v>5.97</v>
       </c>
       <c r="H80" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I80" s="1">
         <v>43256</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>247</v>
+        <v>169</v>
       </c>
       <c r="B81" t="s">
-        <v>248</v>
+        <v>170</v>
       </c>
       <c r="C81" t="s">
-        <v>249</v>
+        <v>556</v>
       </c>
       <c r="D81">
         <v>25192371783</v>
@@ -5115,21 +5113,21 @@
         <v>22.98</v>
       </c>
       <c r="H81" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I81" s="1">
         <v>43242</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="B82" t="s">
-        <v>251</v>
+        <v>172</v>
       </c>
       <c r="C82" t="s">
-        <v>252</v>
+        <v>557</v>
       </c>
       <c r="D82">
         <v>24543340058</v>
@@ -5144,21 +5142,21 @@
         <v>17.98</v>
       </c>
       <c r="H82" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I82" s="1">
         <v>43112</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>253</v>
+        <v>173</v>
       </c>
       <c r="B83" t="s">
-        <v>254</v>
+        <v>174</v>
       </c>
       <c r="C83" t="s">
-        <v>255</v>
+        <v>558</v>
       </c>
       <c r="D83">
         <v>24543391937</v>
@@ -5173,21 +5171,21 @@
         <v>14.98</v>
       </c>
       <c r="H83" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I83" s="1">
         <v>43280</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>256</v>
+        <v>175</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>257</v>
+        <v>559</v>
       </c>
       <c r="D84">
         <v>786936842784</v>
@@ -5202,21 +5200,21 @@
         <v>29.99</v>
       </c>
       <c r="H84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I84" s="1">
         <v>41982</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>258</v>
+        <v>176</v>
       </c>
       <c r="B85" t="s">
-        <v>259</v>
+        <v>177</v>
       </c>
       <c r="C85" t="s">
-        <v>260</v>
+        <v>560</v>
       </c>
       <c r="D85">
         <v>31398273738</v>
@@ -5231,21 +5229,21 @@
         <v>19.98</v>
       </c>
       <c r="H85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I85" s="1">
         <v>43256</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>261</v>
+        <v>178</v>
       </c>
       <c r="B86" t="s">
-        <v>262</v>
+        <v>179</v>
       </c>
       <c r="C86" t="s">
-        <v>263</v>
+        <v>561</v>
       </c>
       <c r="D86">
         <v>32429296917</v>
@@ -5260,21 +5258,21 @@
         <v>11.99</v>
       </c>
       <c r="H86" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I86" s="1">
         <v>43249</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="B87" t="s">
-        <v>265</v>
+        <v>181</v>
       </c>
       <c r="C87" t="s">
-        <v>266</v>
+        <v>562</v>
       </c>
       <c r="D87">
         <v>883929003556</v>
@@ -5289,21 +5287,21 @@
         <v>5.97</v>
       </c>
       <c r="H87" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I87" s="1">
         <v>40568</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>267</v>
+        <v>182</v>
       </c>
       <c r="B88" t="s">
-        <v>268</v>
+        <v>183</v>
       </c>
       <c r="C88" t="s">
-        <v>269</v>
+        <v>563</v>
       </c>
       <c r="D88">
         <v>85393895129</v>
@@ -5318,21 +5316,21 @@
         <v>5.97</v>
       </c>
       <c r="H88" t="s">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="I88" s="1">
         <v>41172</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>271</v>
+        <v>185</v>
       </c>
       <c r="B89" t="s">
-        <v>272</v>
+        <v>186</v>
       </c>
       <c r="C89" t="s">
-        <v>273</v>
+        <v>564</v>
       </c>
       <c r="D89">
         <v>786936143836</v>
@@ -5347,21 +5345,21 @@
         <v>9.99</v>
       </c>
       <c r="H89" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I89" s="1">
         <v>42734</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>274</v>
+        <v>187</v>
       </c>
       <c r="B90" t="s">
-        <v>275</v>
+        <v>188</v>
       </c>
       <c r="C90" t="s">
-        <v>276</v>
+        <v>565</v>
       </c>
       <c r="D90">
         <v>43396527829</v>
@@ -5376,21 +5374,21 @@
         <v>19.989999999999998</v>
       </c>
       <c r="H90" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I90" s="1">
         <v>43280</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>277</v>
+        <v>189</v>
       </c>
       <c r="B91" t="s">
-        <v>278</v>
+        <v>190</v>
       </c>
       <c r="C91" t="s">
-        <v>279</v>
+        <v>566</v>
       </c>
       <c r="D91">
         <v>31398286240</v>
@@ -5405,21 +5403,21 @@
         <v>29.95</v>
       </c>
       <c r="H91" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I91" s="1">
         <v>43263</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>280</v>
+        <v>191</v>
       </c>
       <c r="B92" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C92" t="s">
-        <v>281</v>
+        <v>567</v>
       </c>
       <c r="D92">
         <v>25192316180</v>
@@ -5434,21 +5432,21 @@
         <v>19.98</v>
       </c>
       <c r="H92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I92" s="1">
         <v>43221</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="B93" t="s">
-        <v>283</v>
+        <v>193</v>
       </c>
       <c r="C93" t="s">
-        <v>284</v>
+        <v>568</v>
       </c>
       <c r="D93">
         <v>24543417019</v>
@@ -5463,21 +5461,21 @@
         <v>17.98</v>
       </c>
       <c r="H93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I93" s="1">
         <v>43245</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>285</v>
+        <v>194</v>
       </c>
       <c r="B94" t="s">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="C94" t="s">
-        <v>287</v>
+        <v>569</v>
       </c>
       <c r="D94">
         <v>85391163145</v>
@@ -5492,21 +5490,21 @@
         <v>5.97</v>
       </c>
       <c r="H94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I94" s="1">
         <v>41291</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>288</v>
+        <v>196</v>
       </c>
       <c r="B95" t="s">
-        <v>289</v>
+        <v>197</v>
       </c>
       <c r="C95" t="s">
-        <v>290</v>
+        <v>570</v>
       </c>
       <c r="D95">
         <v>24543313915</v>
@@ -5521,21 +5519,21 @@
         <v>29.98</v>
       </c>
       <c r="H95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I95" s="1">
         <v>43214</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>291</v>
+        <v>198</v>
       </c>
       <c r="B96" t="s">
-        <v>292</v>
+        <v>199</v>
       </c>
       <c r="C96" t="s">
-        <v>293</v>
+        <v>571</v>
       </c>
       <c r="D96">
         <v>43396274983</v>
@@ -5550,21 +5548,21 @@
         <v>9.99</v>
       </c>
       <c r="H96" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I96" s="1">
         <v>42255</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>294</v>
+        <v>200</v>
       </c>
       <c r="B97" t="s">
-        <v>295</v>
+        <v>201</v>
       </c>
       <c r="C97" t="s">
-        <v>296</v>
+        <v>572</v>
       </c>
       <c r="D97">
         <v>841887032056</v>
@@ -5579,21 +5577,21 @@
         <v>49.99</v>
       </c>
       <c r="H97" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I97" s="1">
         <v>42927</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>297</v>
+        <v>202</v>
       </c>
       <c r="B98" t="s">
-        <v>298</v>
+        <v>203</v>
       </c>
       <c r="C98" t="s">
-        <v>299</v>
+        <v>573</v>
       </c>
       <c r="D98">
         <v>32429230973</v>
@@ -5608,21 +5606,21 @@
         <v>16.989999999999998</v>
       </c>
       <c r="H98" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I98" s="1">
         <v>42283</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="B99" t="s">
-        <v>301</v>
+        <v>205</v>
       </c>
       <c r="C99" t="s">
-        <v>302</v>
+        <v>574</v>
       </c>
       <c r="D99">
         <v>32429296320</v>
@@ -5637,21 +5635,21 @@
         <v>33.99</v>
       </c>
       <c r="H99" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="I99" s="1">
         <v>43207</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>303</v>
+        <v>206</v>
       </c>
       <c r="B100" t="s">
-        <v>304</v>
+        <v>207</v>
       </c>
       <c r="C100" t="s">
-        <v>305</v>
+        <v>575</v>
       </c>
       <c r="D100">
         <v>883929243716</v>
@@ -5666,21 +5664,21 @@
         <v>12.97</v>
       </c>
       <c r="H100" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I100" s="1">
         <v>41646</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="B101" t="s">
-        <v>307</v>
+        <v>209</v>
       </c>
       <c r="C101" t="s">
-        <v>308</v>
+        <v>576</v>
       </c>
       <c r="D101">
         <v>85391163107</v>
@@ -5695,21 +5693,21 @@
         <v>5.97</v>
       </c>
       <c r="H101" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I101" s="1">
         <v>42646</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
       <c r="B102" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C102" t="s">
-        <v>310</v>
+        <v>577</v>
       </c>
       <c r="D102">
         <v>883929596140</v>
@@ -5724,21 +5722,21 @@
         <v>39.99</v>
       </c>
       <c r="H102" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="I102" s="1">
         <v>42948</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="B103" t="s">
-        <v>262</v>
+        <v>179</v>
       </c>
       <c r="C103" t="s">
-        <v>312</v>
+        <v>578</v>
       </c>
       <c r="D103">
         <v>32429304032</v>
@@ -5753,21 +5751,21 @@
         <v>17.989999999999998</v>
       </c>
       <c r="H103" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I103" s="1">
         <v>43235</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>313</v>
+        <v>212</v>
       </c>
       <c r="B104" t="s">
-        <v>314</v>
+        <v>213</v>
       </c>
       <c r="C104" t="s">
-        <v>315</v>
+        <v>579</v>
       </c>
       <c r="D104">
         <v>43396518858</v>
@@ -5782,21 +5780,21 @@
         <v>19.989999999999998</v>
       </c>
       <c r="H104" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I104" s="1">
         <v>43280</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>316</v>
+        <v>214</v>
       </c>
       <c r="B105" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C105" t="s">
-        <v>318</v>
+        <v>580</v>
       </c>
       <c r="D105">
         <v>32429305404</v>
@@ -5811,21 +5809,21 @@
         <v>25.99</v>
       </c>
       <c r="H105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I105" s="1">
         <v>43249</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>319</v>
+        <v>216</v>
       </c>
       <c r="B106" t="s">
-        <v>320</v>
+        <v>217</v>
       </c>
       <c r="C106" t="s">
-        <v>321</v>
+        <v>581</v>
       </c>
       <c r="D106">
         <v>32429277855</v>
@@ -5840,21 +5838,21 @@
         <v>33.99</v>
       </c>
       <c r="H106" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="I106" s="1">
         <v>43207</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>322</v>
+        <v>218</v>
       </c>
       <c r="B107" t="s">
-        <v>322</v>
+        <v>218</v>
       </c>
       <c r="C107" t="s">
-        <v>323</v>
+        <v>582</v>
       </c>
       <c r="D107">
         <v>786936217650</v>
@@ -5869,21 +5867,21 @@
         <v>6.25</v>
       </c>
       <c r="H107" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I107" s="1">
         <v>42170</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>324</v>
+        <v>219</v>
       </c>
       <c r="B108" t="s">
-        <v>325</v>
+        <v>220</v>
       </c>
       <c r="C108" t="s">
-        <v>326</v>
+        <v>583</v>
       </c>
       <c r="D108">
         <v>883929539116</v>
@@ -5898,21 +5896,21 @@
         <v>12.97</v>
       </c>
       <c r="H108" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I108" s="1">
         <v>43256</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>327</v>
+        <v>221</v>
       </c>
       <c r="B109" t="s">
-        <v>328</v>
+        <v>222</v>
       </c>
       <c r="C109" t="s">
-        <v>329</v>
+        <v>584</v>
       </c>
       <c r="D109">
         <v>43396488434</v>
@@ -5927,21 +5925,21 @@
         <v>14.99</v>
       </c>
       <c r="H109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I109" s="1">
         <v>43133</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>330</v>
+        <v>223</v>
       </c>
       <c r="B110" t="s">
-        <v>331</v>
+        <v>224</v>
       </c>
       <c r="C110" t="s">
-        <v>332</v>
+        <v>585</v>
       </c>
       <c r="D110">
         <v>31398272137</v>
@@ -5956,21 +5954,21 @@
         <v>29.95</v>
       </c>
       <c r="H110" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I110" s="1">
         <v>43046</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="B111" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="C111" t="s">
-        <v>334</v>
+        <v>586</v>
       </c>
       <c r="D111">
         <v>24543417804</v>
@@ -5985,21 +5983,21 @@
         <v>29.98</v>
       </c>
       <c r="H111" t="s">
-        <v>335</v>
+        <v>226</v>
       </c>
       <c r="I111" s="1">
         <v>43242</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>336</v>
+        <v>227</v>
       </c>
       <c r="B112" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="C112" t="s">
-        <v>337</v>
+        <v>587</v>
       </c>
       <c r="D112">
         <v>191329046067</v>
@@ -6014,21 +6012,21 @@
         <v>19.98</v>
       </c>
       <c r="H112" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I112" s="1">
         <v>43242</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>338</v>
+        <v>228</v>
       </c>
       <c r="B113" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="C113" t="s">
-        <v>340</v>
+        <v>588</v>
       </c>
       <c r="D113">
         <v>786936823639</v>
@@ -6043,21 +6041,21 @@
         <v>19.989999999999998</v>
       </c>
       <c r="H113" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I113" s="1">
         <v>42170</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>341</v>
+        <v>230</v>
       </c>
       <c r="B114" t="s">
-        <v>342</v>
+        <v>231</v>
       </c>
       <c r="C114" t="s">
-        <v>343</v>
+        <v>589</v>
       </c>
       <c r="D114">
         <v>191329048023</v>
@@ -6072,21 +6070,21 @@
         <v>29.98</v>
       </c>
       <c r="H114" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I114" s="1">
         <v>43200</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>344</v>
+        <v>232</v>
       </c>
       <c r="B115" t="s">
-        <v>345</v>
+        <v>233</v>
       </c>
       <c r="C115" t="s">
-        <v>346</v>
+        <v>590</v>
       </c>
       <c r="D115">
         <v>883929266777</v>
@@ -6101,21 +6099,21 @@
         <v>12.97</v>
       </c>
       <c r="H115" t="s">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="I115" s="1">
         <v>42430</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>347</v>
+        <v>234</v>
       </c>
       <c r="B116" t="s">
-        <v>348</v>
+        <v>235</v>
       </c>
       <c r="C116" t="s">
-        <v>349</v>
+        <v>591</v>
       </c>
       <c r="D116">
         <v>786936281330</v>
@@ -6130,21 +6128,21 @@
         <v>9.99</v>
       </c>
       <c r="H116" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I116" s="1">
         <v>42981</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>350</v>
+        <v>236</v>
       </c>
       <c r="B117" t="s">
-        <v>351</v>
+        <v>237</v>
       </c>
       <c r="C117" t="s">
-        <v>352</v>
+        <v>592</v>
       </c>
       <c r="D117">
         <v>25192396953</v>
@@ -6159,21 +6157,21 @@
         <v>19.98</v>
       </c>
       <c r="H117" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I117" s="1">
         <v>43221</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>353</v>
+        <v>238</v>
       </c>
       <c r="B118" t="s">
-        <v>354</v>
+        <v>239</v>
       </c>
       <c r="C118" t="s">
-        <v>355</v>
+        <v>593</v>
       </c>
       <c r="D118">
         <v>43396116429</v>
@@ -6188,21 +6186,21 @@
         <v>9.99</v>
       </c>
       <c r="H118" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I118" s="1">
         <v>40456</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>356</v>
+        <v>240</v>
       </c>
       <c r="B119" t="s">
-        <v>357</v>
+        <v>241</v>
       </c>
       <c r="C119" t="s">
-        <v>358</v>
+        <v>594</v>
       </c>
       <c r="D119">
         <v>31398274681</v>
@@ -6217,21 +6215,21 @@
         <v>29.95</v>
       </c>
       <c r="H119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I119" s="1">
         <v>43053</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>359</v>
+        <v>242</v>
       </c>
       <c r="B120" t="s">
-        <v>360</v>
+        <v>243</v>
       </c>
       <c r="C120" t="s">
-        <v>361</v>
+        <v>595</v>
       </c>
       <c r="D120">
         <v>786936816648</v>
@@ -6246,21 +6244,21 @@
         <v>19.989999999999998</v>
       </c>
       <c r="H120" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I120" s="1">
         <v>42170</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>362</v>
+        <v>244</v>
       </c>
       <c r="B121" t="s">
-        <v>363</v>
+        <v>245</v>
       </c>
       <c r="C121" t="s">
-        <v>364</v>
+        <v>596</v>
       </c>
       <c r="D121">
         <v>191329010129</v>
@@ -6275,21 +6273,21 @@
         <v>29.98</v>
       </c>
       <c r="H121" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I121" s="1">
         <v>43200</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>365</v>
+        <v>246</v>
       </c>
       <c r="B122" t="s">
-        <v>366</v>
+        <v>247</v>
       </c>
       <c r="C122" t="s">
-        <v>367</v>
+        <v>597</v>
       </c>
       <c r="D122">
         <v>32429263520</v>
@@ -6304,21 +6302,21 @@
         <v>9.99</v>
       </c>
       <c r="H122" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I122" s="1">
         <v>43083</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>368</v>
+        <v>248</v>
       </c>
       <c r="B123" t="s">
-        <v>369</v>
+        <v>249</v>
       </c>
       <c r="C123" t="s">
-        <v>370</v>
+        <v>598</v>
       </c>
       <c r="D123">
         <v>883929600977</v>
@@ -6333,21 +6331,21 @@
         <v>19.98</v>
       </c>
       <c r="H123" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="I123" s="1">
         <v>42983</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>371</v>
+        <v>250</v>
       </c>
       <c r="B124" t="s">
-        <v>372</v>
+        <v>251</v>
       </c>
       <c r="C124" t="s">
-        <v>373</v>
+        <v>599</v>
       </c>
       <c r="D124">
         <v>32429278432</v>
@@ -6362,21 +6360,21 @@
         <v>10.99</v>
       </c>
       <c r="H124" t="s">
-        <v>374</v>
+        <v>252</v>
       </c>
       <c r="I124" s="1">
         <v>42983</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>375</v>
+        <v>253</v>
       </c>
       <c r="B125" t="s">
-        <v>376</v>
+        <v>254</v>
       </c>
       <c r="C125" t="s">
-        <v>377</v>
+        <v>600</v>
       </c>
       <c r="D125">
         <v>786936143355</v>
@@ -6391,21 +6389,21 @@
         <v>6.25</v>
       </c>
       <c r="H125" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I125" s="1">
         <v>43220</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B126" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C126" t="s">
-        <v>378</v>
+        <v>601</v>
       </c>
       <c r="D126">
         <v>841887030922</v>
@@ -6420,21 +6418,21 @@
         <v>49.99</v>
       </c>
       <c r="H126" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I126" s="1">
         <v>42766</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B127" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C127" t="s">
-        <v>379</v>
+        <v>602</v>
       </c>
       <c r="D127">
         <v>841887035408</v>
@@ -6449,21 +6447,21 @@
         <v>49.99</v>
       </c>
       <c r="H127" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I127" s="1">
         <v>43130</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>380</v>
+        <v>255</v>
       </c>
       <c r="B128" t="s">
-        <v>381</v>
+        <v>256</v>
       </c>
       <c r="C128" t="s">
-        <v>382</v>
+        <v>603</v>
       </c>
       <c r="D128">
         <v>43396523821</v>
@@ -6478,21 +6476,21 @@
         <v>25.99</v>
       </c>
       <c r="H128" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I128" s="1">
         <v>43172</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>383</v>
+        <v>257</v>
       </c>
       <c r="B129" t="s">
-        <v>384</v>
+        <v>258</v>
       </c>
       <c r="C129" t="s">
-        <v>385</v>
+        <v>604</v>
       </c>
       <c r="D129">
         <v>97361468143</v>
@@ -6507,21 +6505,21 @@
         <v>15.99</v>
       </c>
       <c r="H129" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I129" s="1">
         <v>42381</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>386</v>
+        <v>259</v>
       </c>
       <c r="B130" t="s">
-        <v>387</v>
+        <v>260</v>
       </c>
       <c r="C130" t="s">
-        <v>388</v>
+        <v>605</v>
       </c>
       <c r="D130">
         <v>24543226857</v>
@@ -6536,21 +6534,21 @@
         <v>17.98</v>
       </c>
       <c r="H130" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I130" s="1">
         <v>43112</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>389</v>
+        <v>261</v>
       </c>
       <c r="B131" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C131" t="s">
-        <v>390</v>
+        <v>606</v>
       </c>
       <c r="D131">
         <v>883929571864</v>
@@ -6565,21 +6563,21 @@
         <v>18.940000000000001</v>
       </c>
       <c r="H131" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I131" s="1">
         <v>43256</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>391</v>
+        <v>262</v>
       </c>
       <c r="B132" t="s">
-        <v>392</v>
+        <v>263</v>
       </c>
       <c r="C132" t="s">
-        <v>393</v>
+        <v>607</v>
       </c>
       <c r="D132">
         <v>786936820591</v>
@@ -6594,21 +6592,21 @@
         <v>14.99</v>
       </c>
       <c r="H132" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I132" s="1">
         <v>42170</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>394</v>
+        <v>264</v>
       </c>
       <c r="B133" t="s">
-        <v>395</v>
+        <v>265</v>
       </c>
       <c r="C133" t="s">
-        <v>396</v>
+        <v>608</v>
       </c>
       <c r="D133">
         <v>32429231277</v>
@@ -6623,21 +6621,21 @@
         <v>79.989999999999995</v>
       </c>
       <c r="H133" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="I133" s="1">
         <v>42311</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>397</v>
+        <v>266</v>
       </c>
       <c r="B134" t="s">
-        <v>398</v>
+        <v>267</v>
       </c>
       <c r="C134" t="s">
-        <v>399</v>
+        <v>609</v>
       </c>
       <c r="D134">
         <v>191329028957</v>
@@ -6652,21 +6650,21 @@
         <v>29.98</v>
       </c>
       <c r="H134" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I134" s="1">
         <v>43270</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>400</v>
+        <v>268</v>
       </c>
       <c r="B135" t="s">
-        <v>401</v>
+        <v>269</v>
       </c>
       <c r="C135" t="s">
-        <v>402</v>
+        <v>610</v>
       </c>
       <c r="D135">
         <v>31398274094</v>
@@ -6681,21 +6679,21 @@
         <v>19.98</v>
       </c>
       <c r="H135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I135" s="1">
         <v>43256</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>403</v>
+        <v>270</v>
       </c>
       <c r="B136" t="s">
-        <v>220</v>
+        <v>151</v>
       </c>
       <c r="C136" t="s">
-        <v>404</v>
+        <v>611</v>
       </c>
       <c r="D136">
         <v>32429261502</v>
@@ -6710,21 +6708,21 @@
         <v>19.989999999999998</v>
       </c>
       <c r="H136" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I136" s="1">
         <v>42969</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>405</v>
+        <v>271</v>
       </c>
       <c r="B137" t="s">
-        <v>406</v>
+        <v>272</v>
       </c>
       <c r="C137" t="s">
-        <v>407</v>
+        <v>612</v>
       </c>
       <c r="D137">
         <v>883929603176</v>
@@ -6739,21 +6737,21 @@
         <v>19.98</v>
       </c>
       <c r="H137" t="s">
-        <v>408</v>
+        <v>273</v>
       </c>
       <c r="I137" s="1">
         <v>43011</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>409</v>
+        <v>274</v>
       </c>
       <c r="B138" t="s">
-        <v>410</v>
+        <v>275</v>
       </c>
       <c r="C138" t="s">
-        <v>411</v>
+        <v>613</v>
       </c>
       <c r="D138">
         <v>841887033732</v>
@@ -6768,21 +6766,21 @@
         <v>39.99</v>
       </c>
       <c r="H138" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I138" s="1">
         <v>42927</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>412</v>
+        <v>276</v>
       </c>
       <c r="B139" t="s">
-        <v>413</v>
+        <v>277</v>
       </c>
       <c r="C139" t="s">
-        <v>414</v>
+        <v>614</v>
       </c>
       <c r="D139">
         <v>31398285342</v>
@@ -6797,21 +6795,21 @@
         <v>29.95</v>
       </c>
       <c r="H139" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I139" s="1">
         <v>43207</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>415</v>
+        <v>278</v>
       </c>
       <c r="B140" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="C140" t="s">
-        <v>416</v>
+        <v>615</v>
       </c>
       <c r="D140">
         <v>43396510364</v>
@@ -6826,21 +6824,21 @@
         <v>19.989999999999998</v>
       </c>
       <c r="H140" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I140" s="1">
         <v>43228</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>417</v>
+        <v>279</v>
       </c>
       <c r="B141" t="s">
-        <v>418</v>
+        <v>280</v>
       </c>
       <c r="C141" t="s">
-        <v>419</v>
+        <v>616</v>
       </c>
       <c r="D141">
         <v>43396514713</v>
@@ -6855,21 +6853,21 @@
         <v>19.989999999999998</v>
       </c>
       <c r="H141" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I141" s="1">
         <v>43228</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>420</v>
+        <v>281</v>
       </c>
       <c r="B142" t="s">
-        <v>421</v>
+        <v>282</v>
       </c>
       <c r="C142" t="s">
-        <v>422</v>
+        <v>617</v>
       </c>
       <c r="D142">
         <v>32429228420</v>
@@ -6884,21 +6882,21 @@
         <v>42.99</v>
       </c>
       <c r="H142" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="I142" s="1">
         <v>42283</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>423</v>
+        <v>283</v>
       </c>
       <c r="B143" t="s">
-        <v>424</v>
+        <v>284</v>
       </c>
       <c r="C143" t="s">
-        <v>425</v>
+        <v>618</v>
       </c>
       <c r="D143">
         <v>32429278111</v>
@@ -6913,21 +6911,21 @@
         <v>25.99</v>
       </c>
       <c r="H143" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="I143" s="1">
         <v>43207</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>426</v>
+        <v>285</v>
       </c>
       <c r="B144" t="s">
-        <v>427</v>
+        <v>286</v>
       </c>
       <c r="C144" t="s">
-        <v>428</v>
+        <v>619</v>
       </c>
       <c r="D144">
         <v>191329023266</v>
@@ -6942,21 +6940,21 @@
         <v>26.99</v>
       </c>
       <c r="H144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I144" s="1">
         <v>42927</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>429</v>
+        <v>287</v>
       </c>
       <c r="B145" t="s">
-        <v>427</v>
+        <v>286</v>
       </c>
       <c r="C145" t="s">
-        <v>430</v>
+        <v>620</v>
       </c>
       <c r="D145">
         <v>883929486403</v>
@@ -6971,21 +6969,21 @@
         <v>14.97</v>
       </c>
       <c r="H145" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I145" s="1">
         <v>43256</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>431</v>
+        <v>288</v>
       </c>
       <c r="B146" t="s">
-        <v>432</v>
+        <v>289</v>
       </c>
       <c r="C146" t="s">
-        <v>433</v>
+        <v>621</v>
       </c>
       <c r="D146">
         <v>24543330325</v>
@@ -7000,21 +6998,21 @@
         <v>17.98</v>
       </c>
       <c r="H146" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I146" s="1">
         <v>43245</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>434</v>
+        <v>290</v>
       </c>
       <c r="B147" t="s">
-        <v>435</v>
+        <v>291</v>
       </c>
       <c r="C147" t="s">
-        <v>436</v>
+        <v>622</v>
       </c>
       <c r="D147">
         <v>191329024683</v>
@@ -7029,21 +7027,21 @@
         <v>19.98</v>
       </c>
       <c r="H147" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I147" s="1">
         <v>43221</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>437</v>
+        <v>292</v>
       </c>
       <c r="B148" t="s">
-        <v>438</v>
+        <v>293</v>
       </c>
       <c r="C148" t="s">
-        <v>439</v>
+        <v>623</v>
       </c>
       <c r="D148">
         <v>31398274797</v>
@@ -7058,21 +7056,21 @@
         <v>19.98</v>
       </c>
       <c r="H148" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I148" s="1">
         <v>43256</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>440</v>
+        <v>294</v>
       </c>
       <c r="B149" t="s">
-        <v>441</v>
+        <v>295</v>
       </c>
       <c r="C149" t="s">
-        <v>442</v>
+        <v>624</v>
       </c>
       <c r="D149">
         <v>841887035125</v>
@@ -7087,21 +7085,21 @@
         <v>39.99</v>
       </c>
       <c r="H149" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I149" s="1">
         <v>43032</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>443</v>
+        <v>296</v>
       </c>
       <c r="B150" t="s">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="C150" t="s">
-        <v>444</v>
+        <v>625</v>
       </c>
       <c r="D150">
         <v>31398266006</v>
@@ -7116,21 +7114,21 @@
         <v>19.98</v>
       </c>
       <c r="H150" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I150" s="1">
         <v>43256</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>445</v>
+        <v>297</v>
       </c>
       <c r="B151" t="s">
-        <v>214</v>
+        <v>147</v>
       </c>
       <c r="C151" t="s">
-        <v>446</v>
+        <v>626</v>
       </c>
       <c r="D151">
         <v>841887025782</v>
@@ -7145,21 +7143,21 @@
         <v>49.99</v>
       </c>
       <c r="H151" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I151" s="1">
         <v>42395</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>447</v>
+        <v>298</v>
       </c>
       <c r="B152" t="s">
-        <v>448</v>
+        <v>299</v>
       </c>
       <c r="C152" t="s">
-        <v>449</v>
+        <v>627</v>
       </c>
       <c r="D152">
         <v>883929572106</v>
@@ -7174,21 +7172,21 @@
         <v>28.98</v>
       </c>
       <c r="H152" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I152" s="1">
         <v>43172</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="B153" t="s">
-        <v>451</v>
+        <v>301</v>
       </c>
       <c r="C153" t="s">
-        <v>452</v>
+        <v>628</v>
       </c>
       <c r="D153">
         <v>31398270331</v>
@@ -7203,21 +7201,21 @@
         <v>29.95</v>
       </c>
       <c r="H153" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I153" s="1">
         <v>42997</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>453</v>
+        <v>302</v>
       </c>
       <c r="B154" t="s">
-        <v>454</v>
+        <v>303</v>
       </c>
       <c r="C154" t="s">
-        <v>455</v>
+        <v>629</v>
       </c>
       <c r="D154">
         <v>31398276418</v>
@@ -7232,21 +7230,21 @@
         <v>19.98</v>
       </c>
       <c r="H154" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I154" s="1">
         <v>43256</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>456</v>
+        <v>304</v>
       </c>
       <c r="B155" t="s">
-        <v>457</v>
+        <v>305</v>
       </c>
       <c r="C155" t="s">
-        <v>458</v>
+        <v>630</v>
       </c>
       <c r="D155">
         <v>32429256584</v>
@@ -7261,21 +7259,21 @@
         <v>6.99</v>
       </c>
       <c r="H155" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I155" s="1">
         <v>42850</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>459</v>
+        <v>306</v>
       </c>
       <c r="B156" t="s">
-        <v>460</v>
+        <v>307</v>
       </c>
       <c r="C156" t="s">
-        <v>461</v>
+        <v>631</v>
       </c>
       <c r="D156">
         <v>786936838961</v>
@@ -7290,21 +7288,21 @@
         <v>29.99</v>
       </c>
       <c r="H156" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I156" s="1">
         <v>41716</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>462</v>
+        <v>308</v>
       </c>
       <c r="B157" t="s">
-        <v>463</v>
+        <v>309</v>
       </c>
       <c r="C157" t="s">
-        <v>464</v>
+        <v>632</v>
       </c>
       <c r="D157">
         <v>24543471097</v>
@@ -7319,21 +7317,21 @@
         <v>29.98</v>
       </c>
       <c r="H157" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I157" s="1">
         <v>43263</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>465</v>
+        <v>310</v>
       </c>
       <c r="B158" t="s">
-        <v>466</v>
+        <v>311</v>
       </c>
       <c r="C158" t="s">
-        <v>467</v>
+        <v>633</v>
       </c>
       <c r="D158">
         <v>786936793192</v>
@@ -7348,21 +7346,21 @@
         <v>16.989999999999998</v>
       </c>
       <c r="H158" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I158" s="1">
         <v>42170</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>468</v>
+        <v>312</v>
       </c>
       <c r="B159" t="s">
-        <v>469</v>
+        <v>313</v>
       </c>
       <c r="C159" t="s">
-        <v>470</v>
+        <v>634</v>
       </c>
       <c r="D159">
         <v>32429256324</v>
@@ -7377,21 +7375,21 @@
         <v>6.99</v>
       </c>
       <c r="H159" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I159" s="1">
         <v>42850</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>471</v>
+        <v>314</v>
       </c>
       <c r="B160" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C160" t="s">
-        <v>472</v>
+        <v>635</v>
       </c>
       <c r="D160">
         <v>191329035894</v>
@@ -7406,21 +7404,21 @@
         <v>19.98</v>
       </c>
       <c r="H160" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I160" s="1">
         <v>43221</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>473</v>
+        <v>315</v>
       </c>
       <c r="B161" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="C161" t="s">
-        <v>474</v>
+        <v>636</v>
       </c>
       <c r="D161">
         <v>786936798333</v>
@@ -7435,21 +7433,21 @@
         <v>29.99</v>
       </c>
       <c r="H161" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I161" s="1">
         <v>40309</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>475</v>
+        <v>316</v>
       </c>
       <c r="B162" t="s">
-        <v>476</v>
+        <v>317</v>
       </c>
       <c r="C162" t="s">
-        <v>477</v>
+        <v>637</v>
       </c>
       <c r="D162">
         <v>786936169713</v>
@@ -7464,21 +7462,21 @@
         <v>6.25</v>
       </c>
       <c r="H162" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I162" s="1">
         <v>42855</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>478</v>
+        <v>318</v>
       </c>
       <c r="B163" t="s">
-        <v>479</v>
+        <v>319</v>
       </c>
       <c r="C163" t="s">
-        <v>480</v>
+        <v>638</v>
       </c>
       <c r="D163">
         <v>786936281644</v>
@@ -7493,21 +7491,21 @@
         <v>9.99</v>
       </c>
       <c r="H163" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I163" s="1">
         <v>42170</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>481</v>
+        <v>320</v>
       </c>
       <c r="B164" t="s">
-        <v>482</v>
+        <v>321</v>
       </c>
       <c r="C164" t="s">
-        <v>483</v>
+        <v>639</v>
       </c>
       <c r="D164">
         <v>191329009192</v>
@@ -7522,21 +7520,21 @@
         <v>14.98</v>
       </c>
       <c r="H164" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I164" s="1">
         <v>43221</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>484</v>
+        <v>322</v>
       </c>
       <c r="B165" t="s">
-        <v>485</v>
+        <v>323</v>
       </c>
       <c r="C165" t="s">
-        <v>486</v>
+        <v>640</v>
       </c>
       <c r="D165">
         <v>31398275824</v>
@@ -7551,21 +7549,21 @@
         <v>19.98</v>
       </c>
       <c r="H165" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I165" s="1">
         <v>43151</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>487</v>
+        <v>324</v>
       </c>
       <c r="B166" t="s">
-        <v>488</v>
+        <v>325</v>
       </c>
       <c r="C166" t="s">
-        <v>489</v>
+        <v>641</v>
       </c>
       <c r="D166">
         <v>191329014127</v>
@@ -7580,21 +7578,21 @@
         <v>14.98</v>
       </c>
       <c r="H166" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I166" s="1">
         <v>43221</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>490</v>
+        <v>326</v>
       </c>
       <c r="B167" t="s">
-        <v>491</v>
+        <v>327</v>
       </c>
       <c r="C167" t="s">
-        <v>492</v>
+        <v>642</v>
       </c>
       <c r="D167">
         <v>883929566938</v>
@@ -7609,21 +7607,21 @@
         <v>39.99</v>
       </c>
       <c r="H167" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="I167" s="1">
         <v>43098</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>493</v>
+        <v>328</v>
       </c>
       <c r="B168" t="s">
-        <v>494</v>
+        <v>329</v>
       </c>
       <c r="C168" t="s">
-        <v>495</v>
+        <v>643</v>
       </c>
       <c r="D168">
         <v>786936801811</v>
@@ -7638,21 +7636,21 @@
         <v>19.989999999999998</v>
       </c>
       <c r="H168" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I168" s="1">
         <v>42170</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>496</v>
+        <v>330</v>
       </c>
       <c r="B169" t="s">
-        <v>497</v>
+        <v>331</v>
       </c>
       <c r="C169" t="s">
-        <v>498</v>
+        <v>644</v>
       </c>
       <c r="D169">
         <v>786936820737</v>
@@ -7667,21 +7665,21 @@
         <v>19.989999999999998</v>
       </c>
       <c r="H169" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I169" s="1">
         <v>42170</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>499</v>
+        <v>332</v>
       </c>
       <c r="B170" t="s">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="C170" t="s">
-        <v>501</v>
+        <v>645</v>
       </c>
       <c r="D170">
         <v>786936853438</v>
@@ -7696,21 +7694,21 @@
         <v>32.99</v>
       </c>
       <c r="H170" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="I170" s="1">
         <v>43220</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>502</v>
+        <v>334</v>
       </c>
       <c r="B171" t="s">
-        <v>503</v>
+        <v>335</v>
       </c>
       <c r="C171" t="s">
-        <v>504</v>
+        <v>646</v>
       </c>
       <c r="D171">
         <v>31398279402</v>
@@ -7725,21 +7723,21 @@
         <v>29.95</v>
       </c>
       <c r="H171" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="I171" s="1">
         <v>43214</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>505</v>
+        <v>336</v>
       </c>
       <c r="B172" t="s">
-        <v>506</v>
+        <v>337</v>
       </c>
       <c r="C172" t="s">
-        <v>507</v>
+        <v>647</v>
       </c>
       <c r="D172">
         <v>883929351312</v>
@@ -7754,21 +7752,21 @@
         <v>9.9700000000000006</v>
       </c>
       <c r="H172" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I172" s="1">
         <v>43020</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>508</v>
+        <v>338</v>
       </c>
       <c r="B173" t="s">
-        <v>509</v>
+        <v>339</v>
       </c>
       <c r="C173" t="s">
-        <v>510</v>
+        <v>648</v>
       </c>
       <c r="D173">
         <v>786936839944</v>
@@ -7783,21 +7781,21 @@
         <v>14.99</v>
       </c>
       <c r="H173" t="s">
-        <v>511</v>
+        <v>340</v>
       </c>
       <c r="I173" s="1">
         <v>42170</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>512</v>
+        <v>341</v>
       </c>
       <c r="B174" t="s">
-        <v>513</v>
+        <v>342</v>
       </c>
       <c r="C174" t="s">
-        <v>514</v>
+        <v>649</v>
       </c>
       <c r="D174">
         <v>85391163268</v>
@@ -7812,21 +7810,21 @@
         <v>5.97</v>
       </c>
       <c r="H174" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I174" s="1">
         <v>40568</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>515</v>
+        <v>343</v>
       </c>
       <c r="B175" t="s">
-        <v>509</v>
+        <v>339</v>
       </c>
       <c r="C175" t="s">
-        <v>516</v>
+        <v>650</v>
       </c>
       <c r="D175">
         <v>786936839968</v>
@@ -7841,21 +7839,21 @@
         <v>14.99</v>
       </c>
       <c r="H175" t="s">
-        <v>511</v>
+        <v>340</v>
       </c>
       <c r="I175" s="1">
         <v>42170</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>517</v>
+        <v>344</v>
       </c>
       <c r="B176" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="C176" t="s">
-        <v>518</v>
+        <v>651</v>
       </c>
       <c r="D176">
         <v>25192377396</v>
@@ -7870,21 +7868,21 @@
         <v>19.98</v>
       </c>
       <c r="H176" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I176" s="1">
         <v>43221</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>519</v>
+        <v>345</v>
       </c>
       <c r="B177" t="s">
-        <v>520</v>
+        <v>346</v>
       </c>
       <c r="C177" t="s">
-        <v>521</v>
+        <v>652</v>
       </c>
       <c r="D177">
         <v>786936244250</v>
@@ -7899,21 +7897,21 @@
         <v>29.99</v>
       </c>
       <c r="H177" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I177" s="1">
         <v>38620</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>522</v>
+        <v>347</v>
       </c>
       <c r="B178" t="s">
-        <v>268</v>
+        <v>183</v>
       </c>
       <c r="C178" t="s">
-        <v>523</v>
+        <v>653</v>
       </c>
       <c r="D178">
         <v>191329020982</v>
@@ -7928,21 +7926,21 @@
         <v>29.98</v>
       </c>
       <c r="H178" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I178" s="1">
         <v>43214</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>524</v>
+        <v>348</v>
       </c>
       <c r="B179" t="s">
-        <v>454</v>
+        <v>303</v>
       </c>
       <c r="C179" t="s">
-        <v>525</v>
+        <v>654</v>
       </c>
       <c r="D179">
         <v>32429307620</v>
@@ -7957,21 +7955,21 @@
         <v>24.99</v>
       </c>
       <c r="H179" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I179" s="1">
         <v>43263</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="B180" t="s">
-        <v>526</v>
+        <v>349</v>
       </c>
       <c r="C180" t="s">
-        <v>527</v>
+        <v>655</v>
       </c>
       <c r="D180">
         <v>883929591480</v>
@@ -7986,21 +7984,21 @@
         <v>19.98</v>
       </c>
       <c r="H180" t="s">
-        <v>528</v>
+        <v>350</v>
       </c>
       <c r="I180" s="1">
         <v>42913</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>529</v>
+        <v>351</v>
       </c>
       <c r="B181" t="s">
-        <v>530</v>
+        <v>352</v>
       </c>
       <c r="C181" t="s">
-        <v>531</v>
+        <v>656</v>
       </c>
       <c r="D181">
         <v>883929174423</v>
@@ -8015,21 +8013,21 @@
         <v>5.97</v>
       </c>
       <c r="H181" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I181" s="1">
         <v>41401</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>532</v>
+        <v>353</v>
       </c>
       <c r="B182" t="s">
-        <v>533</v>
+        <v>354</v>
       </c>
       <c r="C182" t="s">
-        <v>534</v>
+        <v>657</v>
       </c>
       <c r="D182">
         <v>786936286991</v>
@@ -8044,21 +8042,21 @@
         <v>16.989999999999998</v>
       </c>
       <c r="H182" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I182" s="1">
         <v>42170</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>535</v>
+        <v>355</v>
       </c>
       <c r="B183" t="s">
-        <v>536</v>
+        <v>356</v>
       </c>
       <c r="C183" t="s">
-        <v>537</v>
+        <v>658</v>
       </c>
       <c r="D183">
         <v>25192317170</v>
@@ -8073,21 +8071,21 @@
         <v>14.98</v>
       </c>
       <c r="H183" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I183" s="1">
         <v>43221</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>538</v>
+        <v>357</v>
       </c>
       <c r="B184" t="s">
-        <v>539</v>
+        <v>358</v>
       </c>
       <c r="C184" t="s">
-        <v>540</v>
+        <v>659</v>
       </c>
       <c r="D184">
         <v>883929106042</v>
@@ -8102,21 +8100,21 @@
         <v>5.97</v>
       </c>
       <c r="H184" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I184" s="1">
         <v>40568</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>541</v>
+        <v>359</v>
       </c>
       <c r="B185" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="C185" t="s">
-        <v>542</v>
+        <v>660</v>
       </c>
       <c r="D185">
         <v>43396495777</v>
@@ -8131,21 +8129,21 @@
         <v>14.99</v>
       </c>
       <c r="H185" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I185" s="1">
         <v>43228</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>543</v>
+        <v>360</v>
       </c>
       <c r="B186" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="C186" t="s">
-        <v>544</v>
+        <v>661</v>
       </c>
       <c r="D186">
         <v>32429256911</v>
@@ -8160,21 +8158,21 @@
         <v>12.99</v>
       </c>
       <c r="H186" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I186" s="1">
         <v>42759</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>545</v>
+        <v>361</v>
       </c>
       <c r="B187" t="s">
-        <v>546</v>
+        <v>362</v>
       </c>
       <c r="C187" t="s">
-        <v>547</v>
+        <v>662</v>
       </c>
       <c r="D187">
         <v>191329041604</v>
@@ -8189,21 +8187,21 @@
         <v>14.98</v>
       </c>
       <c r="H187" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I187" s="1">
         <v>43221</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>548</v>
+        <v>363</v>
       </c>
       <c r="B188" t="s">
-        <v>424</v>
+        <v>284</v>
       </c>
       <c r="C188" t="s">
-        <v>549</v>
+        <v>663</v>
       </c>
       <c r="D188">
         <v>32429250766</v>
@@ -8218,21 +8216,21 @@
         <v>17.989999999999998</v>
       </c>
       <c r="H188" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="I188" s="1">
         <v>43083</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>550</v>
+        <v>364</v>
       </c>
       <c r="B189" t="s">
-        <v>551</v>
+        <v>365</v>
       </c>
       <c r="C189" t="s">
-        <v>552</v>
+        <v>664</v>
       </c>
       <c r="D189">
         <v>24543435570</v>
@@ -8247,21 +8245,21 @@
         <v>17.98</v>
       </c>
       <c r="H189" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I189" s="1">
         <v>43245</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>553</v>
+        <v>366</v>
       </c>
       <c r="B190" t="s">
-        <v>554</v>
+        <v>367</v>
       </c>
       <c r="C190" t="s">
-        <v>555</v>
+        <v>665</v>
       </c>
       <c r="D190">
         <v>31398268673</v>
@@ -8276,21 +8274,21 @@
         <v>14.98</v>
       </c>
       <c r="H190" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I190" s="1">
         <v>43256</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>556</v>
+        <v>368</v>
       </c>
       <c r="B191" t="s">
-        <v>557</v>
+        <v>369</v>
       </c>
       <c r="C191" t="s">
-        <v>558</v>
+        <v>666</v>
       </c>
       <c r="D191">
         <v>883904361114</v>
@@ -8305,21 +8303,21 @@
         <v>29.98</v>
       </c>
       <c r="H191" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I191" s="1">
         <v>43256</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>559</v>
+        <v>370</v>
       </c>
       <c r="B192" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C192" t="s">
-        <v>560</v>
+        <v>667</v>
       </c>
       <c r="D192">
         <v>97361396644</v>
@@ -8334,21 +8332,21 @@
         <v>52.99</v>
       </c>
       <c r="H192" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I192" s="1">
         <v>41429</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>561</v>
+        <v>371</v>
       </c>
       <c r="B193" t="s">
-        <v>562</v>
+        <v>372</v>
       </c>
       <c r="C193" t="s">
-        <v>563</v>
+        <v>668</v>
       </c>
       <c r="D193">
         <v>43396501034</v>
@@ -8363,21 +8361,21 @@
         <v>19.989999999999998</v>
       </c>
       <c r="H193" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I193" s="1">
         <v>43228</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>564</v>
+        <v>373</v>
       </c>
       <c r="B194" t="s">
-        <v>565</v>
+        <v>374</v>
       </c>
       <c r="C194" t="s">
-        <v>566</v>
+        <v>669</v>
       </c>
       <c r="D194">
         <v>767685156513</v>
@@ -8392,21 +8390,21 @@
         <v>19.98</v>
       </c>
       <c r="H194" t="s">
-        <v>567</v>
+        <v>375</v>
       </c>
       <c r="I194" s="1">
         <v>43116</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>568</v>
+        <v>376</v>
       </c>
       <c r="B195" t="s">
-        <v>569</v>
+        <v>377</v>
       </c>
       <c r="C195" t="s">
-        <v>570</v>
+        <v>670</v>
       </c>
       <c r="D195">
         <v>31398283980</v>
@@ -8421,21 +8419,21 @@
         <v>19.98</v>
       </c>
       <c r="H195" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I195" s="1">
         <v>43214</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>571</v>
+        <v>378</v>
       </c>
       <c r="B196" t="s">
-        <v>572</v>
+        <v>379</v>
       </c>
       <c r="C196" t="s">
-        <v>573</v>
+        <v>671</v>
       </c>
       <c r="D196">
         <v>31398275190</v>
@@ -8450,21 +8448,21 @@
         <v>19.98</v>
       </c>
       <c r="H196" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I196" s="1">
         <v>43088</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>574</v>
+        <v>380</v>
       </c>
       <c r="B197" t="s">
-        <v>575</v>
+        <v>381</v>
       </c>
       <c r="C197" t="s">
-        <v>576</v>
+        <v>672</v>
       </c>
       <c r="D197">
         <v>841887033114</v>
@@ -8479,21 +8477,21 @@
         <v>29.99</v>
       </c>
       <c r="H197" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I197" s="1">
         <v>42836</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>577</v>
+        <v>382</v>
       </c>
       <c r="B198" t="s">
-        <v>578</v>
+        <v>383</v>
       </c>
       <c r="C198" t="s">
-        <v>579</v>
+        <v>673</v>
       </c>
       <c r="D198">
         <v>191329009086</v>
@@ -8508,21 +8506,21 @@
         <v>14.98</v>
       </c>
       <c r="H198" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I198" s="1">
         <v>43102</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>580</v>
+        <v>384</v>
       </c>
       <c r="B199" t="s">
-        <v>581</v>
+        <v>385</v>
       </c>
       <c r="C199" t="s">
-        <v>582</v>
+        <v>674</v>
       </c>
       <c r="D199">
         <v>841887020763</v>
@@ -8537,21 +8535,21 @@
         <v>19.989999999999998</v>
       </c>
       <c r="H199" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I199" s="1">
         <v>41751</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="B200" t="s">
-        <v>583</v>
+        <v>386</v>
       </c>
       <c r="C200" t="s">
-        <v>584</v>
+        <v>675</v>
       </c>
       <c r="D200">
         <v>32429304278</v>
@@ -8566,21 +8564,21 @@
         <v>9.99</v>
       </c>
       <c r="H200" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I200" s="1">
         <v>43109</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>585</v>
+        <v>387</v>
       </c>
       <c r="B201" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C201" t="s">
-        <v>586</v>
+        <v>676</v>
       </c>
       <c r="D201">
         <v>24543437123</v>
@@ -8595,21 +8593,21 @@
         <v>19.98</v>
       </c>
       <c r="H201" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I201" s="1">
         <v>43011</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>587</v>
+        <v>388</v>
       </c>
       <c r="B202" t="s">
-        <v>588</v>
+        <v>389</v>
       </c>
       <c r="C202" t="s">
-        <v>589</v>
+        <v>677</v>
       </c>
       <c r="D202">
         <v>43396507104</v>
@@ -8624,21 +8622,21 @@
         <v>45.99</v>
       </c>
       <c r="H202" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="I202" s="1">
         <v>43046</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>590</v>
+        <v>390</v>
       </c>
       <c r="B203" t="s">
-        <v>536</v>
+        <v>356</v>
       </c>
       <c r="C203" t="s">
-        <v>591</v>
+        <v>678</v>
       </c>
       <c r="D203">
         <v>883929555321</v>
@@ -8653,21 +8651,21 @@
         <v>18.940000000000001</v>
       </c>
       <c r="H203" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I203" s="1">
         <v>43136</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>592</v>
+        <v>391</v>
       </c>
       <c r="B204" t="s">
-        <v>372</v>
+        <v>251</v>
       </c>
       <c r="C204" t="s">
-        <v>593</v>
+        <v>679</v>
       </c>
       <c r="D204">
         <v>32429280985</v>
@@ -8682,21 +8680,21 @@
         <v>10.99</v>
       </c>
       <c r="H204" t="s">
-        <v>374</v>
+        <v>252</v>
       </c>
       <c r="I204" s="1">
         <v>43032</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>594</v>
+        <v>392</v>
       </c>
       <c r="B205" t="s">
-        <v>595</v>
+        <v>393</v>
       </c>
       <c r="C205" t="s">
-        <v>596</v>
+        <v>680</v>
       </c>
       <c r="D205">
         <v>25192396779</v>
@@ -8711,21 +8709,21 @@
         <v>19.98</v>
       </c>
       <c r="H205" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I205" s="1">
         <v>43221</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>597</v>
+        <v>394</v>
       </c>
       <c r="B206" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C206" t="s">
-        <v>598</v>
+        <v>681</v>
       </c>
       <c r="D206">
         <v>786936208030</v>
@@ -8740,21 +8738,21 @@
         <v>6.25</v>
       </c>
       <c r="H206" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I206" s="1">
         <v>43220</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>599</v>
+        <v>395</v>
       </c>
       <c r="B207" t="s">
-        <v>600</v>
+        <v>396</v>
       </c>
       <c r="C207" t="s">
-        <v>601</v>
+        <v>682</v>
       </c>
       <c r="D207">
         <v>25192041228</v>
@@ -8769,21 +8767,21 @@
         <v>9.99</v>
       </c>
       <c r="H207" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I207" s="1">
         <v>42619</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>602</v>
+        <v>397</v>
       </c>
       <c r="B208" t="s">
-        <v>603</v>
+        <v>398</v>
       </c>
       <c r="C208" t="s">
-        <v>604</v>
+        <v>683</v>
       </c>
       <c r="D208">
         <v>74645417196</v>
@@ -8798,21 +8796,21 @@
         <v>17.98</v>
       </c>
       <c r="H208" t="s">
-        <v>605</v>
+        <v>399</v>
       </c>
       <c r="I208" s="1">
         <v>38909</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>606</v>
+        <v>400</v>
       </c>
       <c r="B209" t="s">
-        <v>607</v>
+        <v>401</v>
       </c>
       <c r="C209" t="s">
-        <v>608</v>
+        <v>684</v>
       </c>
       <c r="D209">
         <v>24543104186</v>
@@ -8827,21 +8825,21 @@
         <v>17.98</v>
       </c>
       <c r="H209" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I209" s="1">
         <v>42881</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>609</v>
+        <v>402</v>
       </c>
       <c r="B210" t="s">
-        <v>583</v>
+        <v>386</v>
       </c>
       <c r="C210" t="s">
-        <v>610</v>
+        <v>685</v>
       </c>
       <c r="D210">
         <v>43396095328</v>
@@ -8856,21 +8854,21 @@
         <v>9.99</v>
       </c>
       <c r="H210" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I210" s="1">
         <v>41030</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>611</v>
+        <v>403</v>
       </c>
       <c r="B211" t="s">
-        <v>612</v>
+        <v>404</v>
       </c>
       <c r="C211" t="s">
-        <v>613</v>
+        <v>686</v>
       </c>
       <c r="D211">
         <v>24543992646</v>
@@ -8885,21 +8883,21 @@
         <v>14.98</v>
       </c>
       <c r="H211" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I211" s="1">
         <v>42881</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>614</v>
+        <v>405</v>
       </c>
       <c r="B212" t="s">
-        <v>615</v>
+        <v>406</v>
       </c>
       <c r="C212" t="s">
-        <v>616</v>
+        <v>687</v>
       </c>
       <c r="D212">
         <v>883929182879</v>
@@ -8914,21 +8912,21 @@
         <v>78.92</v>
       </c>
       <c r="H212" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I212" s="1">
         <v>41172</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>617</v>
+        <v>407</v>
       </c>
       <c r="B213" t="s">
-        <v>366</v>
+        <v>247</v>
       </c>
       <c r="C213" t="s">
-        <v>618</v>
+        <v>688</v>
       </c>
       <c r="D213">
         <v>43396521278</v>
@@ -8943,21 +8941,21 @@
         <v>19.989999999999998</v>
       </c>
       <c r="H213" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I213" s="1">
         <v>43228</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>619</v>
+        <v>408</v>
       </c>
       <c r="B214" t="s">
-        <v>620</v>
+        <v>409</v>
       </c>
       <c r="C214" t="s">
-        <v>621</v>
+        <v>689</v>
       </c>
       <c r="D214">
         <v>786936810622</v>
@@ -8972,21 +8970,21 @@
         <v>14.99</v>
       </c>
       <c r="H214" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I214" s="1">
         <v>42170</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>622</v>
+        <v>410</v>
       </c>
       <c r="B215" t="s">
-        <v>623</v>
+        <v>411</v>
       </c>
       <c r="C215" t="s">
-        <v>624</v>
+        <v>690</v>
       </c>
       <c r="D215">
         <v>883929091270</v>
@@ -9001,21 +8999,21 @@
         <v>5.97</v>
       </c>
       <c r="H215" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I215" s="1">
         <v>40428</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>625</v>
+        <v>412</v>
       </c>
       <c r="B216" t="s">
-        <v>626</v>
+        <v>413</v>
       </c>
       <c r="C216" t="s">
-        <v>627</v>
+        <v>691</v>
       </c>
       <c r="D216">
         <v>191329032336</v>
@@ -9030,21 +9028,21 @@
         <v>14.98</v>
       </c>
       <c r="H216" t="s">
-        <v>335</v>
+        <v>226</v>
       </c>
       <c r="I216" s="1">
         <v>43221</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>628</v>
+        <v>414</v>
       </c>
       <c r="B217" t="s">
-        <v>629</v>
+        <v>415</v>
       </c>
       <c r="C217" t="s">
-        <v>630</v>
+        <v>692</v>
       </c>
       <c r="D217">
         <v>717951008701</v>
@@ -9059,21 +9057,21 @@
         <v>6.25</v>
       </c>
       <c r="H217" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I217" s="1">
         <v>42170</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>631</v>
+        <v>416</v>
       </c>
       <c r="B218" t="s">
-        <v>479</v>
+        <v>319</v>
       </c>
       <c r="C218" t="s">
-        <v>632</v>
+        <v>693</v>
       </c>
       <c r="D218">
         <v>32429257529</v>
@@ -9088,21 +9086,21 @@
         <v>6.99</v>
       </c>
       <c r="H218" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I218" s="1">
         <v>42759</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>633</v>
+        <v>417</v>
       </c>
       <c r="B219" t="s">
-        <v>634</v>
+        <v>418</v>
       </c>
       <c r="C219" t="s">
-        <v>635</v>
+        <v>694</v>
       </c>
       <c r="D219">
         <v>786936144758</v>
@@ -9117,21 +9115,21 @@
         <v>6.25</v>
       </c>
       <c r="H219" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I219" s="1">
         <v>42855</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>636</v>
+        <v>419</v>
       </c>
       <c r="B220" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="C220" t="s">
-        <v>637</v>
+        <v>695</v>
       </c>
       <c r="D220">
         <v>841887028073</v>
@@ -9146,21 +9144,21 @@
         <v>39.99</v>
       </c>
       <c r="H220" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I220" s="1">
         <v>42535</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>638</v>
+        <v>420</v>
       </c>
       <c r="B221" t="s">
-        <v>639</v>
+        <v>421</v>
       </c>
       <c r="C221" t="s">
-        <v>640</v>
+        <v>696</v>
       </c>
       <c r="D221">
         <v>841887034159</v>
@@ -9175,21 +9173,21 @@
         <v>49.99</v>
       </c>
       <c r="H221" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I221" s="1">
         <v>43025</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>641</v>
+        <v>422</v>
       </c>
       <c r="B222" t="s">
-        <v>642</v>
+        <v>423</v>
       </c>
       <c r="C222" t="s">
-        <v>643</v>
+        <v>697</v>
       </c>
       <c r="D222">
         <v>786936293548</v>
@@ -9204,21 +9202,21 @@
         <v>16.989999999999998</v>
       </c>
       <c r="H222" t="s">
-        <v>644</v>
+        <v>424</v>
       </c>
       <c r="I222" s="1">
         <v>42170</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>645</v>
+        <v>425</v>
       </c>
       <c r="B223" t="s">
-        <v>646</v>
+        <v>426</v>
       </c>
       <c r="C223" t="s">
-        <v>647</v>
+        <v>698</v>
       </c>
       <c r="D223">
         <v>31398267843</v>
@@ -9233,21 +9231,21 @@
         <v>59.98</v>
       </c>
       <c r="H223" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="I223" s="1">
         <v>43256</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>648</v>
+        <v>427</v>
       </c>
       <c r="B224" t="s">
-        <v>649</v>
+        <v>428</v>
       </c>
       <c r="C224" t="s">
-        <v>650</v>
+        <v>699</v>
       </c>
       <c r="D224">
         <v>841887033756</v>
@@ -9262,21 +9260,21 @@
         <v>39.99</v>
       </c>
       <c r="H224" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I224" s="1">
         <v>42927</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>651</v>
+        <v>429</v>
       </c>
       <c r="B225" t="s">
-        <v>652</v>
+        <v>430</v>
       </c>
       <c r="C225" t="s">
-        <v>653</v>
+        <v>700</v>
       </c>
       <c r="D225">
         <v>85391895923</v>
@@ -9291,21 +9289,21 @@
         <v>5.97</v>
       </c>
       <c r="H225" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I225" s="1">
         <v>40568</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>654</v>
+        <v>431</v>
       </c>
       <c r="B226" t="s">
-        <v>655</v>
+        <v>432</v>
       </c>
       <c r="C226" t="s">
-        <v>656</v>
+        <v>701</v>
       </c>
       <c r="D226">
         <v>31398285656</v>
@@ -9320,21 +9318,21 @@
         <v>29.95</v>
       </c>
       <c r="H226" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I226" s="1">
         <v>43221</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>657</v>
+        <v>433</v>
       </c>
       <c r="B227" t="s">
-        <v>658</v>
+        <v>434</v>
       </c>
       <c r="C227" t="s">
-        <v>659</v>
+        <v>702</v>
       </c>
       <c r="D227">
         <v>883904360995</v>
@@ -9349,21 +9347,21 @@
         <v>19.98</v>
       </c>
       <c r="H227" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="I227" s="1">
         <v>43236</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>660</v>
+        <v>435</v>
       </c>
       <c r="B228" t="s">
-        <v>661</v>
+        <v>436</v>
       </c>
       <c r="C228" t="s">
-        <v>662</v>
+        <v>703</v>
       </c>
       <c r="D228">
         <v>32429280930</v>
@@ -9378,21 +9376,21 @@
         <v>5.99</v>
       </c>
       <c r="H228" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I228" s="1">
         <v>42990</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>663</v>
+        <v>437</v>
       </c>
       <c r="B229" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C229" t="s">
-        <v>664</v>
+        <v>704</v>
       </c>
       <c r="D229">
         <v>841887028615</v>
@@ -9407,21 +9405,21 @@
         <v>39.99</v>
       </c>
       <c r="H229" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I229" s="1">
         <v>42605</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>665</v>
+        <v>438</v>
       </c>
       <c r="B230" t="s">
-        <v>666</v>
+        <v>439</v>
       </c>
       <c r="C230" t="s">
-        <v>667</v>
+        <v>705</v>
       </c>
       <c r="D230">
         <v>786936727173</v>
@@ -9436,21 +9434,21 @@
         <v>19.989999999999998</v>
       </c>
       <c r="H230" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I230" s="1">
         <v>42170</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>668</v>
+        <v>440</v>
       </c>
       <c r="B231" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C231" t="s">
-        <v>669</v>
+        <v>706</v>
       </c>
       <c r="D231">
         <v>24543152569</v>
@@ -9465,21 +9463,21 @@
         <v>14.98</v>
       </c>
       <c r="H231" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I231" s="1">
         <v>42283</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>670</v>
+        <v>441</v>
       </c>
       <c r="B232" t="s">
-        <v>424</v>
+        <v>284</v>
       </c>
       <c r="C232" t="s">
-        <v>671</v>
+        <v>707</v>
       </c>
       <c r="D232">
         <v>97368218840</v>
@@ -9494,21 +9492,21 @@
         <v>10.99</v>
       </c>
       <c r="H232" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="I232" s="1">
         <v>43083</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>672</v>
+        <v>442</v>
       </c>
       <c r="B233" t="s">
-        <v>673</v>
+        <v>443</v>
       </c>
       <c r="C233" t="s">
-        <v>674</v>
+        <v>708</v>
       </c>
       <c r="D233">
         <v>97360564044</v>
@@ -9523,21 +9521,21 @@
         <v>5.99</v>
       </c>
       <c r="H233" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I233" s="1">
         <v>43083</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>675</v>
+        <v>444</v>
       </c>
       <c r="B234" t="s">
-        <v>676</v>
+        <v>445</v>
       </c>
       <c r="C234" t="s">
-        <v>677</v>
+        <v>709</v>
       </c>
       <c r="D234">
         <v>25192360572</v>
@@ -9552,21 +9550,21 @@
         <v>14.98</v>
       </c>
       <c r="H234" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I234" s="1">
         <v>43102</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>678</v>
+        <v>446</v>
       </c>
       <c r="B235" t="s">
-        <v>679</v>
+        <v>447</v>
       </c>
       <c r="C235" t="s">
-        <v>680</v>
+        <v>710</v>
       </c>
       <c r="D235">
         <v>191329039687</v>
@@ -9581,21 +9579,21 @@
         <v>19.98</v>
       </c>
       <c r="H235" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I235" s="1">
         <v>43221</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>681</v>
+        <v>448</v>
       </c>
       <c r="B236" t="s">
-        <v>682</v>
+        <v>449</v>
       </c>
       <c r="C236" t="s">
-        <v>683</v>
+        <v>711</v>
       </c>
       <c r="D236">
         <v>53939273427</v>
@@ -9610,21 +9608,21 @@
         <v>5.97</v>
       </c>
       <c r="H236" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I236" s="1">
         <v>41291</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>684</v>
+        <v>450</v>
       </c>
       <c r="B237" t="s">
-        <v>304</v>
+        <v>207</v>
       </c>
       <c r="C237" t="s">
-        <v>685</v>
+        <v>712</v>
       </c>
       <c r="D237">
         <v>32429273277</v>
@@ -9639,21 +9637,21 @@
         <v>14.99</v>
       </c>
       <c r="H237" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I237" s="1">
         <v>42850</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>686</v>
+        <v>451</v>
       </c>
       <c r="B238" t="s">
-        <v>304</v>
+        <v>207</v>
       </c>
       <c r="C238" t="s">
-        <v>687</v>
+        <v>713</v>
       </c>
       <c r="D238">
         <v>32429257932</v>
@@ -9668,21 +9666,21 @@
         <v>6.99</v>
       </c>
       <c r="H238" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I238" s="1">
         <v>42759</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>688</v>
+        <v>452</v>
       </c>
       <c r="B239" t="s">
-        <v>689</v>
+        <v>453</v>
       </c>
       <c r="C239" t="s">
-        <v>690</v>
+        <v>714</v>
       </c>
       <c r="D239">
         <v>841887034067</v>
@@ -9697,21 +9695,21 @@
         <v>19.989999999999998</v>
       </c>
       <c r="H239" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I239" s="1">
         <v>43046</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>691</v>
+        <v>454</v>
       </c>
       <c r="B240" t="s">
-        <v>692</v>
+        <v>455</v>
       </c>
       <c r="C240" t="s">
-        <v>693</v>
+        <v>715</v>
       </c>
       <c r="D240">
         <v>717951005205</v>
@@ -9726,21 +9724,21 @@
         <v>6.25</v>
       </c>
       <c r="H240" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I240" s="1">
         <v>42170</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>694</v>
+        <v>456</v>
       </c>
       <c r="B241" t="s">
-        <v>695</v>
+        <v>457</v>
       </c>
       <c r="C241" t="s">
-        <v>696</v>
+        <v>716</v>
       </c>
       <c r="D241">
         <v>883929388684</v>
@@ -9755,21 +9753,21 @@
         <v>5.97</v>
       </c>
       <c r="H241" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I241" s="1">
         <v>42646</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>697</v>
+        <v>458</v>
       </c>
       <c r="B242" t="s">
-        <v>239</v>
+        <v>164</v>
       </c>
       <c r="C242" t="s">
-        <v>698</v>
+        <v>717</v>
       </c>
       <c r="D242">
         <v>25192369247</v>
@@ -9784,21 +9782,21 @@
         <v>19.98</v>
       </c>
       <c r="H242" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I242" s="1">
         <v>42983</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>699</v>
+        <v>459</v>
       </c>
       <c r="B243" t="s">
-        <v>623</v>
+        <v>411</v>
       </c>
       <c r="C243" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="D243">
         <v>717951000156</v>
@@ -9813,21 +9811,21 @@
         <v>6.25</v>
       </c>
       <c r="H243" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I243" s="1">
         <v>42170</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>701</v>
+        <v>460</v>
       </c>
       <c r="B244" t="s">
-        <v>702</v>
+        <v>461</v>
       </c>
       <c r="C244" t="s">
-        <v>703</v>
+        <v>719</v>
       </c>
       <c r="D244">
         <v>786936857672</v>
@@ -9842,21 +9840,21 @@
         <v>26.99</v>
       </c>
       <c r="H244" t="s">
-        <v>644</v>
+        <v>424</v>
       </c>
       <c r="I244" s="1">
         <v>43214</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>704</v>
+        <v>462</v>
       </c>
       <c r="B245" t="s">
-        <v>705</v>
+        <v>463</v>
       </c>
       <c r="C245" t="s">
-        <v>706</v>
+        <v>720</v>
       </c>
       <c r="D245">
         <v>43396013537</v>
@@ -9871,21 +9869,21 @@
         <v>9.99</v>
       </c>
       <c r="H245" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I245" s="1">
         <v>40911</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>707</v>
+        <v>464</v>
       </c>
       <c r="B246" t="s">
-        <v>708</v>
+        <v>465</v>
       </c>
       <c r="C246" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="D246">
         <v>32429277831</v>
@@ -9900,21 +9898,21 @@
         <v>25.99</v>
       </c>
       <c r="H246" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="I246" s="1">
         <v>43207</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>710</v>
+        <v>466</v>
       </c>
       <c r="B247" t="s">
-        <v>711</v>
+        <v>467</v>
       </c>
       <c r="C247" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="D247">
         <v>786936855166</v>
@@ -9929,21 +9927,21 @@
         <v>9.99</v>
       </c>
       <c r="H247" t="s">
-        <v>511</v>
+        <v>340</v>
       </c>
       <c r="I247" s="1">
         <v>43025</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>713</v>
+        <v>468</v>
       </c>
       <c r="B248" t="s">
-        <v>714</v>
+        <v>469</v>
       </c>
       <c r="C248" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="D248">
         <v>32429258328</v>
@@ -9958,21 +9956,21 @@
         <v>14.99</v>
       </c>
       <c r="H248" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I248" s="1">
         <v>42759</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>716</v>
+        <v>470</v>
       </c>
       <c r="B249" t="s">
-        <v>717</v>
+        <v>471</v>
       </c>
       <c r="C249" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="D249">
         <v>32429240842</v>
@@ -9987,21 +9985,21 @@
         <v>79.989999999999995</v>
       </c>
       <c r="H249" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="I249" s="1">
         <v>42437</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>719</v>
+        <v>472</v>
       </c>
       <c r="B250" t="s">
-        <v>720</v>
+        <v>473</v>
       </c>
       <c r="C250" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="D250">
         <v>32429277879</v>
@@ -10016,21 +10014,21 @@
         <v>25.99</v>
       </c>
       <c r="H250" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="I250" s="1">
         <v>43207</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>722</v>
+        <v>474</v>
       </c>
       <c r="B251" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C251" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="D251">
         <v>786936853933</v>
@@ -10045,7 +10043,7 @@
         <v>29.99</v>
       </c>
       <c r="H251" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I251" s="1">
         <v>42976</v>
